--- a/CONSULTA HORARIO.xlsx
+++ b/CONSULTA HORARIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.moraes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.moraes\Desktop\GRADUACAO\2024.1\Professores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0FAAA-8CEC-4E71-B0F3-36F30BFECB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014A44E-7A33-4FE5-B53F-37DA77C1EEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{A6AF654D-DB4E-40E3-BF0C-448428EC581B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6AF654D-DB4E-40E3-BF0C-448428EC581B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -4023,18 +4023,6 @@
   </si>
   <si>
     <t>CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function buscar(){
-    var matricula = document.getElementById('matricula').value;
-    var validacoes = document.getElementById('validacoes');
-    var disciplinas = document.getElementById('disciplinas');
-    var nomeTopo = document.getElementById('nomeTopo');
-    var i;
-    validacoes.classList.add('displayNone');
-    disciplinas.classList.remove('displayNone');
-    /* INÍCIO PARA TROCAR */
-    </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;!DOCTYPE html&gt;
@@ -4070,6 +4058,20 @@
       &lt;/tr&gt;
       &lt;!-- INÍCIO PARA TROCAR --&gt;
       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">function buscar(){
+    var matricula = document.getElementById('matricula').value;
+    var validacoes = document.getElementById('validacoes');
+    var disciplinas = document.getElementById('disciplinas');
+    var atencao = document.getElementById('atencao');
+    var nomeTopo = document.getElementById('nomeTopo');
+    var i;
+    validacoes.classList.add('displayNone');
+    disciplinas.classList.remove('displayNone');
+    atencao.classList.remove('displayNone');
+    /* INÍCIO PARA TROCAR */
+    </t>
   </si>
 </sst>
 </file>
@@ -4494,12 +4496,13 @@
   <dimension ref="A1:P616"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="11.109375" style="3"/>
+    <col min="1" max="9" width="11.109375" style="3"/>
+    <col min="10" max="11" width="11.109375" style="4"/>
     <col min="12" max="12" width="61.33203125" style="4" customWidth="1"/>
     <col min="13" max="14" width="11.109375" style="4"/>
     <col min="15" max="15" width="11.109375" style="3"/>
@@ -4535,10 +4538,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1327</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -4551,10 +4554,10 @@
         <v>1325</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>1329</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4585,11 +4588,11 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="4" t="str">
         <f t="shared" ref="J2:J65" si="0">IF(I2=1,"20:00 às 20:40",IF(I2=2,"21:00 às 21:40",IF(I2=3,"22:00 às 22:40",I2)))</f>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="4" t="str">
         <f>TEXT(A2,"00000000000")</f>
         <v>05273261783</v>
       </c>
@@ -4659,10 +4662,12 @@
     var matricula = document.getElementById('matricula').value;
     var validacoes = document.getElementById('validacoes');
     var disciplinas = document.getElementById('disciplinas');
+    var atencao = document.getElementById('atencao');
     var nomeTopo = document.getElementById('nomeTopo');
     var i;
     validacoes.classList.add('displayNone');
     disciplinas.classList.remove('displayNone');
+    atencao.classList.remove('displayNone');
     /* INÍCIO PARA TROCAR */
     if(matricula == '05273261783'){
         nomeTopo.innerHTML = 'Disciplinas do(a) Professor(a) - ADRIANA GRECO FERREIRA';
@@ -4699,11 +4704,11 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K66" si="2">TEXT(A3,"00000000000")</f>
         <v>05372850752</v>
       </c>
@@ -4772,11 +4777,11 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>03747992706</v>
       </c>
@@ -4845,11 +4850,11 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05258471705</v>
       </c>
@@ -4914,11 +4919,11 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>09711971720</v>
       </c>
@@ -4983,11 +4988,11 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>89438744720</v>
       </c>
@@ -5052,11 +5057,11 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>89438744720</v>
       </c>
@@ -5121,11 +5126,11 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>08385581782</v>
       </c>
@@ -5190,11 +5195,11 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>01208194739</v>
       </c>
@@ -5259,11 +5264,11 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>94139067772</v>
       </c>
@@ -5328,11 +5333,11 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>80338950710</v>
       </c>
@@ -5397,11 +5402,11 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>88466914749</v>
       </c>
@@ -5466,11 +5471,11 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>79539718791</v>
       </c>
@@ -5535,11 +5540,11 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>79539718791</v>
       </c>
@@ -5604,11 +5609,11 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3" t="str">
+      <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>13610048786</v>
       </c>
@@ -5673,11 +5678,11 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00389228788</v>
       </c>
@@ -5742,11 +5747,11 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00389228788</v>
       </c>
@@ -5811,11 +5816,11 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12411249730</v>
       </c>
@@ -5880,11 +5885,11 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K20" s="3" t="str">
+      <c r="K20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>09374606720</v>
       </c>
@@ -5949,11 +5954,11 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="K21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>09374606720</v>
       </c>
@@ -6018,11 +6023,11 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>09374606720</v>
       </c>
@@ -6087,11 +6092,11 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K23" s="3" t="str">
+      <c r="K23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>04701149756</v>
       </c>
@@ -6156,11 +6161,11 @@
       <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K24" s="3" t="str">
+      <c r="K24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05273261783</v>
       </c>
@@ -6225,11 +6230,11 @@
       <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="K25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>04625139635</v>
       </c>
@@ -6294,11 +6299,11 @@
       <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K26" s="3" t="str">
+      <c r="K26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05670472705</v>
       </c>
@@ -6363,11 +6368,11 @@
       <c r="I27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="3" t="str">
+      <c r="J27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K27" s="3" t="str">
+      <c r="K27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>10153294701</v>
       </c>
@@ -6432,11 +6437,11 @@
       <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="J28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K28" s="3" t="str">
+      <c r="K28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>10502293713</v>
       </c>
@@ -6501,11 +6506,11 @@
       <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="J29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K29" s="3" t="str">
+      <c r="K29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12084568730</v>
       </c>
@@ -6570,11 +6575,11 @@
       <c r="I30" s="3">
         <v>2</v>
       </c>
-      <c r="J30" s="3" t="str">
+      <c r="J30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K30" s="3" t="str">
+      <c r="K30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>11123487782</v>
       </c>
@@ -6639,11 +6644,11 @@
       <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="J31" s="3" t="str">
+      <c r="J31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K31" s="3" t="str">
+      <c r="K31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>89438744720</v>
       </c>
@@ -6708,11 +6713,11 @@
       <c r="I32" s="3">
         <v>2</v>
       </c>
-      <c r="J32" s="3" t="str">
+      <c r="J32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K32" s="3" t="str">
+      <c r="K32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>81539754715</v>
       </c>
@@ -6777,11 +6782,11 @@
       <c r="I33" s="3">
         <v>2</v>
       </c>
-      <c r="J33" s="3" t="str">
+      <c r="J33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K33" s="3" t="str">
+      <c r="K33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>01241688761</v>
       </c>
@@ -6846,11 +6851,11 @@
       <c r="I34" s="3">
         <v>2</v>
       </c>
-      <c r="J34" s="3" t="str">
+      <c r="J34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K34" s="3" t="str">
+      <c r="K34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>94139067772</v>
       </c>
@@ -6915,11 +6920,11 @@
       <c r="I35" s="3">
         <v>2</v>
       </c>
-      <c r="J35" s="3" t="str">
+      <c r="J35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K35" s="3" t="str">
+      <c r="K35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12299794760</v>
       </c>
@@ -6984,11 +6989,11 @@
       <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="3" t="str">
+      <c r="J36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K36" s="3" t="str">
+      <c r="K36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12299794760</v>
       </c>
@@ -7053,11 +7058,11 @@
       <c r="I37" s="3">
         <v>2</v>
       </c>
-      <c r="J37" s="3" t="str">
+      <c r="J37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K37" s="3" t="str">
+      <c r="K37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00364406712</v>
       </c>
@@ -7122,11 +7127,11 @@
       <c r="I38" s="3">
         <v>2</v>
       </c>
-      <c r="J38" s="3" t="str">
+      <c r="J38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K38" s="3" t="str">
+      <c r="K38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12411249730</v>
       </c>
@@ -7191,11 +7196,11 @@
       <c r="I39" s="3">
         <v>2</v>
       </c>
-      <c r="J39" s="3" t="str">
+      <c r="J39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K39" s="3" t="str">
+      <c r="K39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>39878702812</v>
       </c>
@@ -7260,11 +7265,11 @@
       <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="3" t="str">
+      <c r="J40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K40" s="3" t="str">
+      <c r="K40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>04701149756</v>
       </c>
@@ -7329,11 +7334,11 @@
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="3" t="str">
+      <c r="J41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K41" s="3" t="str">
+      <c r="K41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05194533799</v>
       </c>
@@ -7398,11 +7403,11 @@
       <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="J42" s="3" t="str">
+      <c r="J42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K42" s="3" t="str">
+      <c r="K42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>13814480708</v>
       </c>
@@ -7467,11 +7472,11 @@
       <c r="I43" s="3">
         <v>2</v>
       </c>
-      <c r="J43" s="3" t="str">
+      <c r="J43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K43" s="3" t="str">
+      <c r="K43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>13814480708</v>
       </c>
@@ -7536,11 +7541,11 @@
       <c r="I44" s="3">
         <v>3</v>
       </c>
-      <c r="J44" s="3" t="str">
+      <c r="J44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K44" s="3" t="str">
+      <c r="K44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05372850752</v>
       </c>
@@ -7605,11 +7610,11 @@
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="3" t="str">
+      <c r="J45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K45" s="3" t="str">
+      <c r="K45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>17034921709</v>
       </c>
@@ -7674,11 +7679,11 @@
       <c r="I46" s="3">
         <v>3</v>
       </c>
-      <c r="J46" s="3" t="str">
+      <c r="J46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K46" s="3" t="str">
+      <c r="K46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>17034921709</v>
       </c>
@@ -7743,11 +7748,11 @@
       <c r="I47" s="3">
         <v>3</v>
       </c>
-      <c r="J47" s="3" t="str">
+      <c r="J47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K47" s="3" t="str">
+      <c r="K47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>10502293713</v>
       </c>
@@ -7812,11 +7817,11 @@
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="3" t="str">
+      <c r="J48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K48" s="3" t="str">
+      <c r="K48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>89438744720</v>
       </c>
@@ -7881,11 +7886,11 @@
       <c r="I49" s="3">
         <v>3</v>
       </c>
-      <c r="J49" s="3" t="str">
+      <c r="J49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K49" s="3" t="str">
+      <c r="K49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>94139067772</v>
       </c>
@@ -7950,11 +7955,11 @@
       <c r="I50" s="3">
         <v>3</v>
       </c>
-      <c r="J50" s="3" t="str">
+      <c r="J50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K50" s="3" t="str">
+      <c r="K50" s="4" t="str">
         <f t="shared" si="2"/>
         <v>88887359768</v>
       </c>
@@ -8019,11 +8024,11 @@
       <c r="I51" s="3">
         <v>3</v>
       </c>
-      <c r="J51" s="3" t="str">
+      <c r="J51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K51" s="3" t="str">
+      <c r="K51" s="4" t="str">
         <f t="shared" si="2"/>
         <v>00364406712</v>
       </c>
@@ -8088,11 +8093,11 @@
       <c r="I52" s="3">
         <v>3</v>
       </c>
-      <c r="J52" s="3" t="str">
+      <c r="J52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K52" s="3" t="str">
+      <c r="K52" s="4" t="str">
         <f t="shared" si="2"/>
         <v>04303703770</v>
       </c>
@@ -8157,11 +8162,11 @@
       <c r="I53" s="3">
         <v>3</v>
       </c>
-      <c r="J53" s="3" t="str">
+      <c r="J53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K53" s="3" t="str">
+      <c r="K53" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05194533799</v>
       </c>
@@ -8226,11 +8231,11 @@
       <c r="I54" s="3">
         <v>1</v>
       </c>
-      <c r="J54" s="3" t="str">
+      <c r="J54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K54" s="3" t="str">
+      <c r="K54" s="4" t="str">
         <f t="shared" si="2"/>
         <v>03612773771</v>
       </c>
@@ -8295,11 +8300,11 @@
       <c r="I55" s="3">
         <v>1</v>
       </c>
-      <c r="J55" s="3" t="str">
+      <c r="J55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K55" s="3" t="str">
+      <c r="K55" s="4" t="str">
         <f t="shared" si="2"/>
         <v>02500681769</v>
       </c>
@@ -8364,11 +8369,11 @@
       <c r="I56" s="3">
         <v>1</v>
       </c>
-      <c r="J56" s="3" t="str">
+      <c r="J56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K56" s="3" t="str">
+      <c r="K56" s="4" t="str">
         <f t="shared" si="2"/>
         <v>05670472705</v>
       </c>
@@ -8433,11 +8438,11 @@
       <c r="I57" s="3">
         <v>1</v>
       </c>
-      <c r="J57" s="3" t="str">
+      <c r="J57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K57" s="3" t="str">
+      <c r="K57" s="4" t="str">
         <f t="shared" si="2"/>
         <v>53098030763</v>
       </c>
@@ -8502,11 +8507,11 @@
       <c r="I58" s="3">
         <v>1</v>
       </c>
-      <c r="J58" s="3" t="str">
+      <c r="J58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K58" s="3" t="str">
+      <c r="K58" s="4" t="str">
         <f t="shared" si="2"/>
         <v>12084568730</v>
       </c>
@@ -8571,11 +8576,11 @@
       <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="J59" s="3" t="str">
+      <c r="J59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K59" s="3" t="str">
+      <c r="K59" s="4" t="str">
         <f t="shared" si="2"/>
         <v>08931303700</v>
       </c>
@@ -8640,11 +8645,11 @@
       <c r="I60" s="3">
         <v>1</v>
       </c>
-      <c r="J60" s="3" t="str">
+      <c r="J60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K60" s="3" t="str">
+      <c r="K60" s="4" t="str">
         <f t="shared" si="2"/>
         <v>92640923072</v>
       </c>
@@ -8709,11 +8714,11 @@
       <c r="I61" s="3">
         <v>1</v>
       </c>
-      <c r="J61" s="3" t="str">
+      <c r="J61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K61" s="3" t="str">
+      <c r="K61" s="4" t="str">
         <f t="shared" si="2"/>
         <v>84674610710</v>
       </c>
@@ -8778,11 +8783,11 @@
       <c r="I62" s="3">
         <v>1</v>
       </c>
-      <c r="J62" s="3" t="str">
+      <c r="J62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K62" s="3" t="str">
+      <c r="K62" s="4" t="str">
         <f t="shared" si="2"/>
         <v>07536195710</v>
       </c>
@@ -8847,11 +8852,11 @@
       <c r="I63" s="3">
         <v>1</v>
       </c>
-      <c r="J63" s="3" t="str">
+      <c r="J63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K63" s="3" t="str">
+      <c r="K63" s="4" t="str">
         <f t="shared" si="2"/>
         <v>09711971720</v>
       </c>
@@ -8916,11 +8921,11 @@
       <c r="I64" s="3">
         <v>1</v>
       </c>
-      <c r="J64" s="3" t="str">
+      <c r="J64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K64" s="3" t="str">
+      <c r="K64" s="4" t="str">
         <f t="shared" si="2"/>
         <v>17373628729</v>
       </c>
@@ -8985,11 +8990,11 @@
       <c r="I65" s="3">
         <v>1</v>
       </c>
-      <c r="J65" s="3" t="str">
+      <c r="J65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K65" s="3" t="str">
+      <c r="K65" s="4" t="str">
         <f t="shared" si="2"/>
         <v>88887359768</v>
       </c>
@@ -9054,11 +9059,11 @@
       <c r="I66" s="3">
         <v>1</v>
       </c>
-      <c r="J66" s="3" t="str">
+      <c r="J66" s="4" t="str">
         <f t="shared" ref="J66:J129" si="4">IF(I66=1,"20:00 às 20:40",IF(I66=2,"21:00 às 21:40",IF(I66=3,"22:00 às 22:40",I66)))</f>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K66" s="3" t="str">
+      <c r="K66" s="4" t="str">
         <f t="shared" si="2"/>
         <v>79539718791</v>
       </c>
@@ -9123,11 +9128,11 @@
       <c r="I67" s="3">
         <v>1</v>
       </c>
-      <c r="J67" s="3" t="str">
+      <c r="J67" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K67" s="3" t="str">
+      <c r="K67" s="4" t="str">
         <f t="shared" ref="K67:K130" si="6">TEXT(A67,"00000000000")</f>
         <v>12299794760</v>
       </c>
@@ -9192,11 +9197,11 @@
       <c r="I68" s="3">
         <v>1</v>
       </c>
-      <c r="J68" s="3" t="str">
+      <c r="J68" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K68" s="3" t="str">
+      <c r="K68" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12411249730</v>
       </c>
@@ -9265,11 +9270,11 @@
       <c r="I69" s="3">
         <v>1</v>
       </c>
-      <c r="J69" s="3" t="str">
+      <c r="J69" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K69" s="3" t="str">
+      <c r="K69" s="4" t="str">
         <f t="shared" si="6"/>
         <v>08513772704</v>
       </c>
@@ -9334,11 +9339,11 @@
       <c r="I70" s="3">
         <v>1</v>
       </c>
-      <c r="J70" s="3" t="str">
+      <c r="J70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K70" s="3" t="str">
+      <c r="K70" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13087798797</v>
       </c>
@@ -9403,11 +9408,11 @@
       <c r="I71" s="3">
         <v>1</v>
       </c>
-      <c r="J71" s="3" t="str">
+      <c r="J71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K71" s="3" t="str">
+      <c r="K71" s="4" t="str">
         <f t="shared" si="6"/>
         <v>14825047742</v>
       </c>
@@ -9472,11 +9477,11 @@
       <c r="I72" s="3">
         <v>1</v>
       </c>
-      <c r="J72" s="3" t="str">
+      <c r="J72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K72" s="3" t="str">
+      <c r="K72" s="4" t="str">
         <f t="shared" si="6"/>
         <v>39878702812</v>
       </c>
@@ -9541,11 +9546,11 @@
       <c r="I73" s="3">
         <v>1</v>
       </c>
-      <c r="J73" s="3" t="str">
+      <c r="J73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K73" s="3" t="str">
+      <c r="K73" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13814480708</v>
       </c>
@@ -9610,11 +9615,11 @@
       <c r="I74" s="3">
         <v>2</v>
       </c>
-      <c r="J74" s="3" t="str">
+      <c r="J74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K74" s="3" t="str">
+      <c r="K74" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02500681769</v>
       </c>
@@ -9679,11 +9684,11 @@
       <c r="I75" s="3">
         <v>2</v>
       </c>
-      <c r="J75" s="3" t="str">
+      <c r="J75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K75" s="3" t="str">
+      <c r="K75" s="4" t="str">
         <f t="shared" si="6"/>
         <v>03747992706</v>
       </c>
@@ -9748,11 +9753,11 @@
       <c r="I76" s="3">
         <v>2</v>
       </c>
-      <c r="J76" s="3" t="str">
+      <c r="J76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K76" s="3" t="str">
+      <c r="K76" s="4" t="str">
         <f t="shared" si="6"/>
         <v>03747992706</v>
       </c>
@@ -9817,11 +9822,11 @@
       <c r="I77" s="3">
         <v>2</v>
       </c>
-      <c r="J77" s="3" t="str">
+      <c r="J77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K77" s="3" t="str">
+      <c r="K77" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02974801706</v>
       </c>
@@ -9886,11 +9891,11 @@
       <c r="I78" s="3">
         <v>2</v>
       </c>
-      <c r="J78" s="3" t="str">
+      <c r="J78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K78" s="3" t="str">
+      <c r="K78" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02603392700</v>
       </c>
@@ -9955,11 +9960,11 @@
       <c r="I79" s="3">
         <v>2</v>
       </c>
-      <c r="J79" s="3" t="str">
+      <c r="J79" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K79" s="3" t="str">
+      <c r="K79" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02603392700</v>
       </c>
@@ -10024,11 +10029,11 @@
       <c r="I80" s="3">
         <v>2</v>
       </c>
-      <c r="J80" s="3" t="str">
+      <c r="J80" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K80" s="3" t="str">
+      <c r="K80" s="4" t="str">
         <f t="shared" si="6"/>
         <v>10583797717</v>
       </c>
@@ -10093,11 +10098,11 @@
       <c r="I81" s="3">
         <v>2</v>
       </c>
-      <c r="J81" s="3" t="str">
+      <c r="J81" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K81" s="3" t="str">
+      <c r="K81" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12207468780</v>
       </c>
@@ -10162,11 +10167,11 @@
       <c r="I82" s="3">
         <v>2</v>
       </c>
-      <c r="J82" s="3" t="str">
+      <c r="J82" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K82" s="3" t="str">
+      <c r="K82" s="4" t="str">
         <f t="shared" si="6"/>
         <v>03361027713</v>
       </c>
@@ -10231,11 +10236,11 @@
       <c r="I83" s="3">
         <v>2</v>
       </c>
-      <c r="J83" s="3" t="str">
+      <c r="J83" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K83" s="3" t="str">
+      <c r="K83" s="4" t="str">
         <f t="shared" si="6"/>
         <v>17034921709</v>
       </c>
@@ -10300,11 +10305,11 @@
       <c r="I84" s="3">
         <v>2</v>
       </c>
-      <c r="J84" s="3" t="str">
+      <c r="J84" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K84" s="3" t="str">
+      <c r="K84" s="4" t="str">
         <f t="shared" si="6"/>
         <v>01602302766</v>
       </c>
@@ -10369,11 +10374,11 @@
       <c r="I85" s="3">
         <v>2</v>
       </c>
-      <c r="J85" s="3" t="str">
+      <c r="J85" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K85" s="3" t="str">
+      <c r="K85" s="4" t="str">
         <f t="shared" si="6"/>
         <v>11784987786</v>
       </c>
@@ -10438,11 +10443,11 @@
       <c r="I86" s="3">
         <v>2</v>
       </c>
-      <c r="J86" s="3" t="str">
+      <c r="J86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K86" s="3" t="str">
+      <c r="K86" s="4" t="str">
         <f t="shared" si="6"/>
         <v>11784987786</v>
       </c>
@@ -10507,11 +10512,11 @@
       <c r="I87" s="3">
         <v>2</v>
       </c>
-      <c r="J87" s="3" t="str">
+      <c r="J87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K87" s="3" t="str">
+      <c r="K87" s="4" t="str">
         <f t="shared" si="6"/>
         <v>07475879739</v>
       </c>
@@ -10576,11 +10581,11 @@
       <c r="I88" s="3">
         <v>2</v>
       </c>
-      <c r="J88" s="3" t="str">
+      <c r="J88" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K88" s="3" t="str">
+      <c r="K88" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12987020708</v>
       </c>
@@ -10645,11 +10650,11 @@
       <c r="I89" s="3">
         <v>2</v>
       </c>
-      <c r="J89" s="3" t="str">
+      <c r="J89" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K89" s="3" t="str">
+      <c r="K89" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12987020708</v>
       </c>
@@ -10714,11 +10719,11 @@
       <c r="I90" s="3">
         <v>2</v>
       </c>
-      <c r="J90" s="3" t="str">
+      <c r="J90" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K90" s="3" t="str">
+      <c r="K90" s="4" t="str">
         <f t="shared" si="6"/>
         <v>92640923072</v>
       </c>
@@ -10783,11 +10788,11 @@
       <c r="I91" s="3">
         <v>2</v>
       </c>
-      <c r="J91" s="3" t="str">
+      <c r="J91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K91" s="3" t="str">
+      <c r="K91" s="4" t="str">
         <f t="shared" si="6"/>
         <v>11840018712</v>
       </c>
@@ -10852,11 +10857,11 @@
       <c r="I92" s="3">
         <v>2</v>
       </c>
-      <c r="J92" s="3" t="str">
+      <c r="J92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K92" s="3" t="str">
+      <c r="K92" s="4" t="str">
         <f t="shared" si="6"/>
         <v>84674610710</v>
       </c>
@@ -10921,11 +10926,11 @@
       <c r="I93" s="3">
         <v>2</v>
       </c>
-      <c r="J93" s="3" t="str">
+      <c r="J93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K93" s="3" t="str">
+      <c r="K93" s="4" t="str">
         <f t="shared" si="6"/>
         <v>84674610710</v>
       </c>
@@ -10990,11 +10995,11 @@
       <c r="I94" s="3">
         <v>2</v>
       </c>
-      <c r="J94" s="3" t="str">
+      <c r="J94" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K94" s="3" t="str">
+      <c r="K94" s="4" t="str">
         <f t="shared" si="6"/>
         <v>07896229714</v>
       </c>
@@ -11059,11 +11064,11 @@
       <c r="I95" s="3">
         <v>2</v>
       </c>
-      <c r="J95" s="3" t="str">
+      <c r="J95" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K95" s="3" t="str">
+      <c r="K95" s="4" t="str">
         <f t="shared" si="6"/>
         <v>08385581782</v>
       </c>
@@ -11128,11 +11133,11 @@
       <c r="I96" s="3">
         <v>2</v>
       </c>
-      <c r="J96" s="3" t="str">
+      <c r="J96" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K96" s="3" t="str">
+      <c r="K96" s="4" t="str">
         <f t="shared" si="6"/>
         <v>04285779706</v>
       </c>
@@ -11197,11 +11202,11 @@
       <c r="I97" s="3">
         <v>2</v>
       </c>
-      <c r="J97" s="3" t="str">
+      <c r="J97" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K97" s="3" t="str">
+      <c r="K97" s="4" t="str">
         <f t="shared" si="6"/>
         <v>04285779706</v>
       </c>
@@ -11266,11 +11271,11 @@
       <c r="I98" s="3">
         <v>2</v>
       </c>
-      <c r="J98" s="3" t="str">
+      <c r="J98" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K98" s="3" t="str">
+      <c r="K98" s="4" t="str">
         <f t="shared" si="6"/>
         <v>88466914749</v>
       </c>
@@ -11335,11 +11340,11 @@
       <c r="I99" s="3">
         <v>2</v>
       </c>
-      <c r="J99" s="3" t="str">
+      <c r="J99" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K99" s="3" t="str">
+      <c r="K99" s="4" t="str">
         <f t="shared" si="6"/>
         <v>07149274730</v>
       </c>
@@ -11404,11 +11409,11 @@
       <c r="I100" s="3">
         <v>2</v>
       </c>
-      <c r="J100" s="3" t="str">
+      <c r="J100" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K100" s="3" t="str">
+      <c r="K100" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13610048786</v>
       </c>
@@ -11473,11 +11478,11 @@
       <c r="I101" s="3">
         <v>2</v>
       </c>
-      <c r="J101" s="3" t="str">
+      <c r="J101" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K101" s="3" t="str">
+      <c r="K101" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12299794760</v>
       </c>
@@ -11542,11 +11547,11 @@
       <c r="I102" s="3">
         <v>2</v>
       </c>
-      <c r="J102" s="3" t="str">
+      <c r="J102" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K102" s="3" t="str">
+      <c r="K102" s="4" t="str">
         <f t="shared" si="6"/>
         <v>01641334703</v>
       </c>
@@ -11611,11 +11616,11 @@
       <c r="I103" s="3">
         <v>2</v>
       </c>
-      <c r="J103" s="3" t="str">
+      <c r="J103" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K103" s="3" t="str">
+      <c r="K103" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12411249730</v>
       </c>
@@ -11680,11 +11685,11 @@
       <c r="I104" s="3">
         <v>2</v>
       </c>
-      <c r="J104" s="3" t="str">
+      <c r="J104" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K104" s="3" t="str">
+      <c r="K104" s="4" t="str">
         <f t="shared" si="6"/>
         <v>12411249730</v>
       </c>
@@ -11749,11 +11754,11 @@
       <c r="I105" s="3">
         <v>2</v>
       </c>
-      <c r="J105" s="3" t="str">
+      <c r="J105" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K105" s="3" t="str">
+      <c r="K105" s="4" t="str">
         <f t="shared" si="6"/>
         <v>09374606720</v>
       </c>
@@ -11818,11 +11823,11 @@
       <c r="I106" s="3">
         <v>2</v>
       </c>
-      <c r="J106" s="3" t="str">
+      <c r="J106" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K106" s="3" t="str">
+      <c r="K106" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13087798797</v>
       </c>
@@ -11887,11 +11892,11 @@
       <c r="I107" s="3">
         <v>2</v>
       </c>
-      <c r="J107" s="3" t="str">
+      <c r="J107" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K107" s="3" t="str">
+      <c r="K107" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13814480708</v>
       </c>
@@ -11956,11 +11961,11 @@
       <c r="I108" s="3">
         <v>2</v>
       </c>
-      <c r="J108" s="3" t="str">
+      <c r="J108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K108" s="3" t="str">
+      <c r="K108" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13814480708</v>
       </c>
@@ -12025,11 +12030,11 @@
       <c r="I109" s="3">
         <v>2</v>
       </c>
-      <c r="J109" s="3" t="str">
+      <c r="J109" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K109" s="3" t="str">
+      <c r="K109" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13814480708</v>
       </c>
@@ -12094,11 +12099,11 @@
       <c r="I110" s="3">
         <v>2</v>
       </c>
-      <c r="J110" s="3" t="str">
+      <c r="J110" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K110" s="3" t="str">
+      <c r="K110" s="4" t="str">
         <f t="shared" si="6"/>
         <v>13814480708</v>
       </c>
@@ -12163,11 +12168,11 @@
       <c r="I111" s="3">
         <v>2</v>
       </c>
-      <c r="J111" s="3" t="str">
+      <c r="J111" s="4" t="str">
         <f t="shared" si="4"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K111" s="3" t="str">
+      <c r="K111" s="4" t="str">
         <f t="shared" si="6"/>
         <v>09943965703</v>
       </c>
@@ -12232,11 +12237,11 @@
       <c r="I112" s="3">
         <v>3</v>
       </c>
-      <c r="J112" s="3" t="str">
+      <c r="J112" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K112" s="3" t="str">
+      <c r="K112" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02500681769</v>
       </c>
@@ -12301,11 +12306,11 @@
       <c r="I113" s="3">
         <v>3</v>
       </c>
-      <c r="J113" s="3" t="str">
+      <c r="J113" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K113" s="3" t="str">
+      <c r="K113" s="4" t="str">
         <f t="shared" si="6"/>
         <v>05372850752</v>
       </c>
@@ -12370,11 +12375,11 @@
       <c r="I114" s="3">
         <v>3</v>
       </c>
-      <c r="J114" s="3" t="str">
+      <c r="J114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K114" s="3" t="str">
+      <c r="K114" s="4" t="str">
         <f t="shared" si="6"/>
         <v>04274535770</v>
       </c>
@@ -12439,11 +12444,11 @@
       <c r="I115" s="3">
         <v>3</v>
       </c>
-      <c r="J115" s="3" t="str">
+      <c r="J115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K115" s="3" t="str">
+      <c r="K115" s="4" t="str">
         <f t="shared" si="6"/>
         <v>04274535770</v>
       </c>
@@ -12508,11 +12513,11 @@
       <c r="I116" s="3">
         <v>3</v>
       </c>
-      <c r="J116" s="3" t="str">
+      <c r="J116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K116" s="3" t="str">
+      <c r="K116" s="4" t="str">
         <f t="shared" si="6"/>
         <v>29804168863</v>
       </c>
@@ -12577,11 +12582,11 @@
       <c r="I117" s="3">
         <v>3</v>
       </c>
-      <c r="J117" s="3" t="str">
+      <c r="J117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K117" s="3" t="str">
+      <c r="K117" s="4" t="str">
         <f t="shared" si="6"/>
         <v>29804168863</v>
       </c>
@@ -12646,11 +12651,11 @@
       <c r="I118" s="3">
         <v>3</v>
       </c>
-      <c r="J118" s="3" t="str">
+      <c r="J118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K118" s="3" t="str">
+      <c r="K118" s="4" t="str">
         <f t="shared" si="6"/>
         <v>02974801706</v>
       </c>
@@ -12715,11 +12720,11 @@
       <c r="I119" s="3">
         <v>3</v>
       </c>
-      <c r="J119" s="3" t="str">
+      <c r="J119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K119" s="3" t="str">
+      <c r="K119" s="4" t="str">
         <f t="shared" si="6"/>
         <v>10583797717</v>
       </c>
@@ -12784,11 +12789,11 @@
       <c r="I120" s="3">
         <v>3</v>
       </c>
-      <c r="J120" s="3" t="str">
+      <c r="J120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K120" s="3" t="str">
+      <c r="K120" s="4" t="str">
         <f t="shared" si="6"/>
         <v>10583797717</v>
       </c>
@@ -12853,11 +12858,11 @@
       <c r="I121" s="3">
         <v>3</v>
       </c>
-      <c r="J121" s="3" t="str">
+      <c r="J121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K121" s="3" t="str">
+      <c r="K121" s="4" t="str">
         <f t="shared" si="6"/>
         <v>03361027713</v>
       </c>
@@ -12922,11 +12927,11 @@
       <c r="I122" s="3">
         <v>3</v>
       </c>
-      <c r="J122" s="3" t="str">
+      <c r="J122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K122" s="3" t="str">
+      <c r="K122" s="4" t="str">
         <f t="shared" si="6"/>
         <v>03361027713</v>
       </c>
@@ -12991,11 +12996,11 @@
       <c r="I123" s="3">
         <v>3</v>
       </c>
-      <c r="J123" s="3" t="str">
+      <c r="J123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K123" s="3" t="str">
+      <c r="K123" s="4" t="str">
         <f t="shared" si="6"/>
         <v>17034921709</v>
       </c>
@@ -13060,11 +13065,11 @@
       <c r="I124" s="3">
         <v>3</v>
       </c>
-      <c r="J124" s="3" t="str">
+      <c r="J124" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K124" s="3" t="str">
+      <c r="K124" s="4" t="str">
         <f t="shared" si="6"/>
         <v>07826719771</v>
       </c>
@@ -13129,11 +13134,11 @@
       <c r="I125" s="3">
         <v>3</v>
       </c>
-      <c r="J125" s="3" t="str">
+      <c r="J125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K125" s="3" t="str">
+      <c r="K125" s="4" t="str">
         <f t="shared" si="6"/>
         <v>10153294701</v>
       </c>
@@ -13198,11 +13203,11 @@
       <c r="I126" s="3">
         <v>3</v>
       </c>
-      <c r="J126" s="3" t="str">
+      <c r="J126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K126" s="3" t="str">
+      <c r="K126" s="4" t="str">
         <f t="shared" si="6"/>
         <v>01602302766</v>
       </c>
@@ -13267,11 +13272,11 @@
       <c r="I127" s="3">
         <v>3</v>
       </c>
-      <c r="J127" s="3" t="str">
+      <c r="J127" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K127" s="3" t="str">
+      <c r="K127" s="4" t="str">
         <f t="shared" si="6"/>
         <v>01602302766</v>
       </c>
@@ -13336,11 +13341,11 @@
       <c r="I128" s="3">
         <v>3</v>
       </c>
-      <c r="J128" s="3" t="str">
+      <c r="J128" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K128" s="3" t="str">
+      <c r="K128" s="4" t="str">
         <f t="shared" si="6"/>
         <v>11784987786</v>
       </c>
@@ -13405,11 +13410,11 @@
       <c r="I129" s="3">
         <v>3</v>
       </c>
-      <c r="J129" s="3" t="str">
+      <c r="J129" s="4" t="str">
         <f t="shared" si="4"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K129" s="3" t="str">
+      <c r="K129" s="4" t="str">
         <f t="shared" si="6"/>
         <v>08931303700</v>
       </c>
@@ -13474,11 +13479,11 @@
       <c r="I130" s="3">
         <v>3</v>
       </c>
-      <c r="J130" s="3" t="str">
+      <c r="J130" s="4" t="str">
         <f t="shared" ref="J130:J193" si="8">IF(I130=1,"20:00 às 20:40",IF(I130=2,"21:00 às 21:40",IF(I130=3,"22:00 às 22:40",I130)))</f>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K130" s="3" t="str">
+      <c r="K130" s="4" t="str">
         <f t="shared" si="6"/>
         <v>08931303700</v>
       </c>
@@ -13543,11 +13548,11 @@
       <c r="I131" s="3">
         <v>3</v>
       </c>
-      <c r="J131" s="3" t="str">
+      <c r="J131" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K131" s="3" t="str">
+      <c r="K131" s="4" t="str">
         <f t="shared" ref="K131:K194" si="10">TEXT(A131,"00000000000")</f>
         <v>08931303700</v>
       </c>
@@ -13612,11 +13617,11 @@
       <c r="I132" s="3">
         <v>3</v>
       </c>
-      <c r="J132" s="3" t="str">
+      <c r="J132" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K132" s="3" t="str">
+      <c r="K132" s="4" t="str">
         <f t="shared" si="10"/>
         <v>92640923072</v>
       </c>
@@ -13685,11 +13690,11 @@
       <c r="I133" s="3">
         <v>3</v>
       </c>
-      <c r="J133" s="3" t="str">
+      <c r="J133" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K133" s="3" t="str">
+      <c r="K133" s="4" t="str">
         <f t="shared" si="10"/>
         <v>11840018712</v>
       </c>
@@ -13754,11 +13759,11 @@
       <c r="I134" s="3">
         <v>3</v>
       </c>
-      <c r="J134" s="3" t="str">
+      <c r="J134" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K134" s="3" t="str">
+      <c r="K134" s="4" t="str">
         <f t="shared" si="10"/>
         <v>84674610710</v>
       </c>
@@ -13823,11 +13828,11 @@
       <c r="I135" s="3">
         <v>3</v>
       </c>
-      <c r="J135" s="3" t="str">
+      <c r="J135" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K135" s="3" t="str">
+      <c r="K135" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08705475775</v>
       </c>
@@ -13892,11 +13897,11 @@
       <c r="I136" s="3">
         <v>3</v>
       </c>
-      <c r="J136" s="3" t="str">
+      <c r="J136" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K136" s="3" t="str">
+      <c r="K136" s="4" t="str">
         <f t="shared" si="10"/>
         <v>11123487782</v>
       </c>
@@ -13961,11 +13966,11 @@
       <c r="I137" s="3">
         <v>3</v>
       </c>
-      <c r="J137" s="3" t="str">
+      <c r="J137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K137" s="3" t="str">
+      <c r="K137" s="4" t="str">
         <f t="shared" si="10"/>
         <v>12889314766</v>
       </c>
@@ -14030,11 +14035,11 @@
       <c r="I138" s="3">
         <v>3</v>
       </c>
-      <c r="J138" s="3" t="str">
+      <c r="J138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K138" s="3" t="str">
+      <c r="K138" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07896229714</v>
       </c>
@@ -14099,11 +14104,11 @@
       <c r="I139" s="3">
         <v>3</v>
       </c>
-      <c r="J139" s="3" t="str">
+      <c r="J139" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K139" s="3" t="str">
+      <c r="K139" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08385581782</v>
       </c>
@@ -14168,11 +14173,11 @@
       <c r="I140" s="3">
         <v>3</v>
       </c>
-      <c r="J140" s="3" t="str">
+      <c r="J140" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K140" s="3" t="str">
+      <c r="K140" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04285779706</v>
       </c>
@@ -14237,11 +14242,11 @@
       <c r="I141" s="3">
         <v>3</v>
       </c>
-      <c r="J141" s="3" t="str">
+      <c r="J141" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K141" s="3" t="str">
+      <c r="K141" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04285779706</v>
       </c>
@@ -14306,11 +14311,11 @@
       <c r="I142" s="3">
         <v>3</v>
       </c>
-      <c r="J142" s="3" t="str">
+      <c r="J142" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K142" s="3" t="str">
+      <c r="K142" s="4" t="str">
         <f t="shared" si="10"/>
         <v>88466914749</v>
       </c>
@@ -14375,11 +14380,11 @@
       <c r="I143" s="3">
         <v>3</v>
       </c>
-      <c r="J143" s="3" t="str">
+      <c r="J143" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K143" s="3" t="str">
+      <c r="K143" s="4" t="str">
         <f t="shared" si="10"/>
         <v>88466914749</v>
       </c>
@@ -14444,11 +14449,11 @@
       <c r="I144" s="3">
         <v>3</v>
       </c>
-      <c r="J144" s="3" t="str">
+      <c r="J144" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K144" s="3" t="str">
+      <c r="K144" s="4" t="str">
         <f t="shared" si="10"/>
         <v>12184618705</v>
       </c>
@@ -14513,11 +14518,11 @@
       <c r="I145" s="3">
         <v>3</v>
       </c>
-      <c r="J145" s="3" t="str">
+      <c r="J145" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K145" s="3" t="str">
+      <c r="K145" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07149274730</v>
       </c>
@@ -14582,11 +14587,11 @@
       <c r="I146" s="3">
         <v>3</v>
       </c>
-      <c r="J146" s="3" t="str">
+      <c r="J146" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K146" s="3" t="str">
+      <c r="K146" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07149274730</v>
       </c>
@@ -14651,11 +14656,11 @@
       <c r="I147" s="3">
         <v>3</v>
       </c>
-      <c r="J147" s="3" t="str">
+      <c r="J147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K147" s="3" t="str">
+      <c r="K147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>79539718791</v>
       </c>
@@ -14720,11 +14725,11 @@
       <c r="I148" s="3">
         <v>3</v>
       </c>
-      <c r="J148" s="3" t="str">
+      <c r="J148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K148" s="3" t="str">
+      <c r="K148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03665806712</v>
       </c>
@@ -14789,11 +14794,11 @@
       <c r="I149" s="3">
         <v>3</v>
       </c>
-      <c r="J149" s="3" t="str">
+      <c r="J149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K149" s="3" t="str">
+      <c r="K149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>13610048786</v>
       </c>
@@ -14858,11 +14863,11 @@
       <c r="I150" s="3">
         <v>3</v>
       </c>
-      <c r="J150" s="3" t="str">
+      <c r="J150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K150" s="3" t="str">
+      <c r="K150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>01641334703</v>
       </c>
@@ -14927,11 +14932,11 @@
       <c r="I151" s="3">
         <v>3</v>
       </c>
-      <c r="J151" s="3" t="str">
+      <c r="J151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K151" s="3" t="str">
+      <c r="K151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>05682394747</v>
       </c>
@@ -14996,11 +15001,11 @@
       <c r="I152" s="3">
         <v>3</v>
       </c>
-      <c r="J152" s="3" t="str">
+      <c r="J152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K152" s="3" t="str">
+      <c r="K152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>16030802798</v>
       </c>
@@ -15065,11 +15070,11 @@
       <c r="I153" s="3">
         <v>3</v>
       </c>
-      <c r="J153" s="3" t="str">
+      <c r="J153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K153" s="3" t="str">
+      <c r="K153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>09374606720</v>
       </c>
@@ -15134,11 +15139,11 @@
       <c r="I154" s="3">
         <v>3</v>
       </c>
-      <c r="J154" s="3" t="str">
+      <c r="J154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K154" s="3" t="str">
+      <c r="K154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>13087798797</v>
       </c>
@@ -15203,11 +15208,11 @@
       <c r="I155" s="3">
         <v>3</v>
       </c>
-      <c r="J155" s="3" t="str">
+      <c r="J155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K155" s="3" t="str">
+      <c r="K155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>39878702812</v>
       </c>
@@ -15272,11 +15277,11 @@
       <c r="I156" s="3">
         <v>1</v>
       </c>
-      <c r="J156" s="3" t="str">
+      <c r="J156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K156" s="3" t="str">
+      <c r="K156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04274535770</v>
       </c>
@@ -15341,11 +15346,11 @@
       <c r="I157" s="3">
         <v>1</v>
       </c>
-      <c r="J157" s="3" t="str">
+      <c r="J157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K157" s="3" t="str">
+      <c r="K157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>75887878720</v>
       </c>
@@ -15410,11 +15415,11 @@
       <c r="I158" s="3">
         <v>1</v>
       </c>
-      <c r="J158" s="3" t="str">
+      <c r="J158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K158" s="3" t="str">
+      <c r="K158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08705475775</v>
       </c>
@@ -15479,11 +15484,11 @@
       <c r="I159" s="3">
         <v>1</v>
       </c>
-      <c r="J159" s="3" t="str">
+      <c r="J159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K159" s="3" t="str">
+      <c r="K159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>09711971720</v>
       </c>
@@ -15548,11 +15553,11 @@
       <c r="I160" s="3">
         <v>1</v>
       </c>
-      <c r="J160" s="3" t="str">
+      <c r="J160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K160" s="3" t="str">
+      <c r="K160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04285779706</v>
       </c>
@@ -15617,11 +15622,11 @@
       <c r="I161" s="3">
         <v>1</v>
       </c>
-      <c r="J161" s="3" t="str">
+      <c r="J161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K161" s="3" t="str">
+      <c r="K161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>22115927168</v>
       </c>
@@ -15686,11 +15691,11 @@
       <c r="I162" s="3">
         <v>1</v>
       </c>
-      <c r="J162" s="3" t="str">
+      <c r="J162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K162" s="3" t="str">
+      <c r="K162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08564323770</v>
       </c>
@@ -15755,11 +15760,11 @@
       <c r="I163" s="3">
         <v>1</v>
       </c>
-      <c r="J163" s="3" t="str">
+      <c r="J163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K163" s="3" t="str">
+      <c r="K163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03665806712</v>
       </c>
@@ -15824,11 +15829,11 @@
       <c r="I164" s="3">
         <v>1</v>
       </c>
-      <c r="J164" s="3" t="str">
+      <c r="J164" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K164" s="3" t="str">
+      <c r="K164" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03665806712</v>
       </c>
@@ -15893,11 +15898,11 @@
       <c r="I165" s="3">
         <v>2</v>
       </c>
-      <c r="J165" s="3" t="str">
+      <c r="J165" s="4" t="str">
         <f t="shared" si="8"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K165" s="3" t="str">
+      <c r="K165" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03612773771</v>
       </c>
@@ -15962,11 +15967,11 @@
       <c r="I166" s="3">
         <v>2</v>
       </c>
-      <c r="J166" s="3" t="str">
+      <c r="J166" s="4" t="str">
         <f t="shared" si="8"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K166" s="3" t="str">
+      <c r="K166" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04274535770</v>
       </c>
@@ -16031,11 +16036,11 @@
       <c r="I167" s="3">
         <v>2</v>
       </c>
-      <c r="J167" s="3" t="str">
+      <c r="J167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K167" s="3" t="str">
+      <c r="K167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>84674610710</v>
       </c>
@@ -16100,11 +16105,11 @@
       <c r="I168" s="3">
         <v>2</v>
       </c>
-      <c r="J168" s="3" t="str">
+      <c r="J168" s="4" t="str">
         <f t="shared" si="8"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K168" s="3" t="str">
+      <c r="K168" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08627124752</v>
       </c>
@@ -16169,11 +16174,11 @@
       <c r="I169" s="3">
         <v>2</v>
       </c>
-      <c r="J169" s="3" t="str">
+      <c r="J169" s="4" t="str">
         <f t="shared" si="8"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K169" s="3" t="str">
+      <c r="K169" s="4" t="str">
         <f t="shared" si="10"/>
         <v>14825047742</v>
       </c>
@@ -16238,11 +16243,11 @@
       <c r="I170" s="3">
         <v>3</v>
       </c>
-      <c r="J170" s="3" t="str">
+      <c r="J170" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K170" s="3" t="str">
+      <c r="K170" s="4" t="str">
         <f t="shared" si="10"/>
         <v>17034921709</v>
       </c>
@@ -16307,11 +16312,11 @@
       <c r="I171" s="3">
         <v>3</v>
       </c>
-      <c r="J171" s="3" t="str">
+      <c r="J171" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K171" s="3" t="str">
+      <c r="K171" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07536195710</v>
       </c>
@@ -16376,11 +16381,11 @@
       <c r="I172" s="3">
         <v>3</v>
       </c>
-      <c r="J172" s="3" t="str">
+      <c r="J172" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K172" s="3" t="str">
+      <c r="K172" s="4" t="str">
         <f t="shared" si="10"/>
         <v>09711971720</v>
       </c>
@@ -16445,11 +16450,11 @@
       <c r="I173" s="3">
         <v>3</v>
       </c>
-      <c r="J173" s="3" t="str">
+      <c r="J173" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K173" s="3" t="str">
+      <c r="K173" s="4" t="str">
         <f t="shared" si="10"/>
         <v>05682394747</v>
       </c>
@@ -16514,11 +16519,11 @@
       <c r="I174" s="3">
         <v>3</v>
       </c>
-      <c r="J174" s="3" t="str">
+      <c r="J174" s="4" t="str">
         <f t="shared" si="8"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K174" s="3" t="str">
+      <c r="K174" s="4" t="str">
         <f t="shared" si="10"/>
         <v>05682394747</v>
       </c>
@@ -16583,11 +16588,11 @@
       <c r="I175" s="3">
         <v>1</v>
       </c>
-      <c r="J175" s="3" t="str">
+      <c r="J175" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K175" s="3" t="str">
+      <c r="K175" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03612773771</v>
       </c>
@@ -16652,11 +16657,11 @@
       <c r="I176" s="3">
         <v>1</v>
       </c>
-      <c r="J176" s="3" t="str">
+      <c r="J176" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K176" s="3" t="str">
+      <c r="K176" s="4" t="str">
         <f t="shared" si="10"/>
         <v>03612773771</v>
       </c>
@@ -16721,11 +16726,11 @@
       <c r="I177" s="3">
         <v>1</v>
       </c>
-      <c r="J177" s="3" t="str">
+      <c r="J177" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K177" s="3" t="str">
+      <c r="K177" s="4" t="str">
         <f t="shared" si="10"/>
         <v>04625139635</v>
       </c>
@@ -16790,11 +16795,11 @@
       <c r="I178" s="3">
         <v>1</v>
       </c>
-      <c r="J178" s="3" t="str">
+      <c r="J178" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K178" s="3" t="str">
+      <c r="K178" s="4" t="str">
         <f t="shared" si="10"/>
         <v>10583797717</v>
       </c>
@@ -16859,11 +16864,11 @@
       <c r="I179" s="3">
         <v>1</v>
       </c>
-      <c r="J179" s="3" t="str">
+      <c r="J179" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K179" s="3" t="str">
+      <c r="K179" s="4" t="str">
         <f t="shared" si="10"/>
         <v>05670472705</v>
       </c>
@@ -16928,11 +16933,11 @@
       <c r="I180" s="3">
         <v>1</v>
       </c>
-      <c r="J180" s="3" t="str">
+      <c r="J180" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K180" s="3" t="str">
+      <c r="K180" s="4" t="str">
         <f t="shared" si="10"/>
         <v>10153294701</v>
       </c>
@@ -16997,11 +17002,11 @@
       <c r="I181" s="3">
         <v>1</v>
       </c>
-      <c r="J181" s="3" t="str">
+      <c r="J181" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K181" s="3" t="str">
+      <c r="K181" s="4" t="str">
         <f t="shared" si="10"/>
         <v>12084568730</v>
       </c>
@@ -17066,11 +17071,11 @@
       <c r="I182" s="3">
         <v>1</v>
       </c>
-      <c r="J182" s="3" t="str">
+      <c r="J182" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K182" s="3" t="str">
+      <c r="K182" s="4" t="str">
         <f t="shared" si="10"/>
         <v>12987020708</v>
       </c>
@@ -17135,11 +17140,11 @@
       <c r="I183" s="3">
         <v>1</v>
       </c>
-      <c r="J183" s="3" t="str">
+      <c r="J183" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K183" s="3" t="str">
+      <c r="K183" s="4" t="str">
         <f t="shared" si="10"/>
         <v>12987020708</v>
       </c>
@@ -17204,11 +17209,11 @@
       <c r="I184" s="3">
         <v>1</v>
       </c>
-      <c r="J184" s="3" t="str">
+      <c r="J184" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K184" s="3" t="str">
+      <c r="K184" s="4" t="str">
         <f t="shared" si="10"/>
         <v>11840018712</v>
       </c>
@@ -17273,11 +17278,11 @@
       <c r="I185" s="3">
         <v>1</v>
       </c>
-      <c r="J185" s="3" t="str">
+      <c r="J185" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K185" s="3" t="str">
+      <c r="K185" s="4" t="str">
         <f t="shared" si="10"/>
         <v>11123487782</v>
       </c>
@@ -17342,11 +17347,11 @@
       <c r="I186" s="3">
         <v>1</v>
       </c>
-      <c r="J186" s="3" t="str">
+      <c r="J186" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K186" s="3" t="str">
+      <c r="K186" s="4" t="str">
         <f t="shared" si="10"/>
         <v>11123487782</v>
       </c>
@@ -17411,11 +17416,11 @@
       <c r="I187" s="3">
         <v>1</v>
       </c>
-      <c r="J187" s="3" t="str">
+      <c r="J187" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K187" s="3" t="str">
+      <c r="K187" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07896229714</v>
       </c>
@@ -17480,11 +17485,11 @@
       <c r="I188" s="3">
         <v>1</v>
       </c>
-      <c r="J188" s="3" t="str">
+      <c r="J188" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K188" s="3" t="str">
+      <c r="K188" s="4" t="str">
         <f t="shared" si="10"/>
         <v>07896229714</v>
       </c>
@@ -17549,11 +17554,11 @@
       <c r="I189" s="3">
         <v>1</v>
       </c>
-      <c r="J189" s="3" t="str">
+      <c r="J189" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K189" s="3" t="str">
+      <c r="K189" s="4" t="str">
         <f t="shared" si="10"/>
         <v>09711971720</v>
       </c>
@@ -17618,11 +17623,11 @@
       <c r="I190" s="3">
         <v>1</v>
       </c>
-      <c r="J190" s="3" t="str">
+      <c r="J190" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K190" s="3" t="str">
+      <c r="K190" s="4" t="str">
         <f t="shared" si="10"/>
         <v>08385581782</v>
       </c>
@@ -17687,11 +17692,11 @@
       <c r="I191" s="3">
         <v>1</v>
       </c>
-      <c r="J191" s="3" t="str">
+      <c r="J191" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K191" s="3" t="str">
+      <c r="K191" s="4" t="str">
         <f t="shared" si="10"/>
         <v>81539754715</v>
       </c>
@@ -17756,11 +17761,11 @@
       <c r="I192" s="3">
         <v>1</v>
       </c>
-      <c r="J192" s="3" t="str">
+      <c r="J192" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K192" s="3" t="str">
+      <c r="K192" s="4" t="str">
         <f t="shared" si="10"/>
         <v>81539754715</v>
       </c>
@@ -17825,11 +17830,11 @@
       <c r="I193" s="3">
         <v>1</v>
       </c>
-      <c r="J193" s="3" t="str">
+      <c r="J193" s="4" t="str">
         <f t="shared" si="8"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K193" s="3" t="str">
+      <c r="K193" s="4" t="str">
         <f t="shared" si="10"/>
         <v>01208194739</v>
       </c>
@@ -17894,11 +17899,11 @@
       <c r="I194" s="3">
         <v>1</v>
       </c>
-      <c r="J194" s="3" t="str">
+      <c r="J194" s="4" t="str">
         <f t="shared" ref="J194:J257" si="12">IF(I194=1,"20:00 às 20:40",IF(I194=2,"21:00 às 21:40",IF(I194=3,"22:00 às 22:40",I194)))</f>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K194" s="3" t="str">
+      <c r="K194" s="4" t="str">
         <f t="shared" si="10"/>
         <v>94139067772</v>
       </c>
@@ -17963,11 +17968,11 @@
       <c r="I195" s="3">
         <v>1</v>
       </c>
-      <c r="J195" s="3" t="str">
+      <c r="J195" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K195" s="3" t="str">
+      <c r="K195" s="4" t="str">
         <f t="shared" ref="K195:K258" si="14">TEXT(A195,"00000000000")</f>
         <v>08564323770</v>
       </c>
@@ -18032,11 +18037,11 @@
       <c r="I196" s="3">
         <v>1</v>
       </c>
-      <c r="J196" s="3" t="str">
+      <c r="J196" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K196" s="3" t="str">
+      <c r="K196" s="4" t="str">
         <f t="shared" si="14"/>
         <v>13610048786</v>
       </c>
@@ -18105,11 +18110,11 @@
       <c r="I197" s="3">
         <v>1</v>
       </c>
-      <c r="J197" s="3" t="str">
+      <c r="J197" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K197" s="3" t="str">
+      <c r="K197" s="4" t="str">
         <f t="shared" si="14"/>
         <v>00389228788</v>
       </c>
@@ -18174,11 +18179,11 @@
       <c r="I198" s="3">
         <v>1</v>
       </c>
-      <c r="J198" s="3" t="str">
+      <c r="J198" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K198" s="3" t="str">
+      <c r="K198" s="4" t="str">
         <f t="shared" si="14"/>
         <v>04303703770</v>
       </c>
@@ -18243,11 +18248,11 @@
       <c r="I199" s="3">
         <v>1</v>
       </c>
-      <c r="J199" s="3" t="str">
+      <c r="J199" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K199" s="3" t="str">
+      <c r="K199" s="4" t="str">
         <f t="shared" si="14"/>
         <v>04303703770</v>
       </c>
@@ -18312,11 +18317,11 @@
       <c r="I200" s="3">
         <v>1</v>
       </c>
-      <c r="J200" s="3" t="str">
+      <c r="J200" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K200" s="3" t="str">
+      <c r="K200" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09374606720</v>
       </c>
@@ -18381,11 +18386,11 @@
       <c r="I201" s="3">
         <v>1</v>
       </c>
-      <c r="J201" s="3" t="str">
+      <c r="J201" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K201" s="3" t="str">
+      <c r="K201" s="4" t="str">
         <f t="shared" si="14"/>
         <v>39878702812</v>
       </c>
@@ -18450,11 +18455,11 @@
       <c r="I202" s="3">
         <v>1</v>
       </c>
-      <c r="J202" s="3" t="str">
+      <c r="J202" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K202" s="3" t="str">
+      <c r="K202" s="4" t="str">
         <f t="shared" si="14"/>
         <v>05194533799</v>
       </c>
@@ -18519,11 +18524,11 @@
       <c r="I203" s="3">
         <v>1</v>
       </c>
-      <c r="J203" s="3" t="str">
+      <c r="J203" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K203" s="3" t="str">
+      <c r="K203" s="4" t="str">
         <f t="shared" si="14"/>
         <v>13814480708</v>
       </c>
@@ -18588,11 +18593,11 @@
       <c r="I204" s="3">
         <v>1</v>
       </c>
-      <c r="J204" s="3" t="str">
+      <c r="J204" s="4" t="str">
         <f t="shared" si="12"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K204" s="3" t="str">
+      <c r="K204" s="4" t="str">
         <f t="shared" si="14"/>
         <v>13814480708</v>
       </c>
@@ -18657,11 +18662,11 @@
       <c r="I205" s="3">
         <v>2</v>
       </c>
-      <c r="J205" s="3" t="str">
+      <c r="J205" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K205" s="3" t="str">
+      <c r="K205" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03612773771</v>
       </c>
@@ -18726,11 +18731,11 @@
       <c r="I206" s="3">
         <v>2</v>
       </c>
-      <c r="J206" s="3" t="str">
+      <c r="J206" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K206" s="3" t="str">
+      <c r="K206" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03612773771</v>
       </c>
@@ -18795,11 +18800,11 @@
       <c r="I207" s="3">
         <v>2</v>
       </c>
-      <c r="J207" s="3" t="str">
+      <c r="J207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K207" s="3" t="str">
+      <c r="K207" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03747992706</v>
       </c>
@@ -18864,11 +18869,11 @@
       <c r="I208" s="3">
         <v>2</v>
       </c>
-      <c r="J208" s="3" t="str">
+      <c r="J208" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K208" s="3" t="str">
+      <c r="K208" s="4" t="str">
         <f t="shared" si="14"/>
         <v>10583797717</v>
       </c>
@@ -18933,11 +18938,11 @@
       <c r="I209" s="3">
         <v>2</v>
       </c>
-      <c r="J209" s="3" t="str">
+      <c r="J209" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K209" s="3" t="str">
+      <c r="K209" s="4" t="str">
         <f t="shared" si="14"/>
         <v>10583797717</v>
       </c>
@@ -19002,11 +19007,11 @@
       <c r="I210" s="3">
         <v>2</v>
       </c>
-      <c r="J210" s="3" t="str">
+      <c r="J210" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K210" s="3" t="str">
+      <c r="K210" s="4" t="str">
         <f t="shared" si="14"/>
         <v>10502293713</v>
       </c>
@@ -19071,11 +19076,11 @@
       <c r="I211" s="3">
         <v>2</v>
       </c>
-      <c r="J211" s="3" t="str">
+      <c r="J211" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K211" s="3" t="str">
+      <c r="K211" s="4" t="str">
         <f t="shared" si="14"/>
         <v>12987020708</v>
       </c>
@@ -19140,11 +19145,11 @@
       <c r="I212" s="3">
         <v>2</v>
       </c>
-      <c r="J212" s="3" t="str">
+      <c r="J212" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K212" s="3" t="str">
+      <c r="K212" s="4" t="str">
         <f t="shared" si="14"/>
         <v>11840018712</v>
       </c>
@@ -19209,11 +19214,11 @@
       <c r="I213" s="3">
         <v>2</v>
       </c>
-      <c r="J213" s="3" t="str">
+      <c r="J213" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K213" s="3" t="str">
+      <c r="K213" s="4" t="str">
         <f t="shared" si="14"/>
         <v>11840018712</v>
       </c>
@@ -19278,11 +19283,11 @@
       <c r="I214" s="3">
         <v>2</v>
       </c>
-      <c r="J214" s="3" t="str">
+      <c r="J214" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K214" s="3" t="str">
+      <c r="K214" s="4" t="str">
         <f t="shared" si="14"/>
         <v>07896229714</v>
       </c>
@@ -19347,11 +19352,11 @@
       <c r="I215" s="3">
         <v>2</v>
       </c>
-      <c r="J215" s="3" t="str">
+      <c r="J215" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K215" s="3" t="str">
+      <c r="K215" s="4" t="str">
         <f t="shared" si="14"/>
         <v>07896229714</v>
       </c>
@@ -19416,11 +19421,11 @@
       <c r="I216" s="3">
         <v>2</v>
       </c>
-      <c r="J216" s="3" t="str">
+      <c r="J216" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K216" s="3" t="str">
+      <c r="K216" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09711971720</v>
       </c>
@@ -19485,11 +19490,11 @@
       <c r="I217" s="3">
         <v>2</v>
       </c>
-      <c r="J217" s="3" t="str">
+      <c r="J217" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K217" s="3" t="str">
+      <c r="K217" s="4" t="str">
         <f t="shared" si="14"/>
         <v>89438744720</v>
       </c>
@@ -19554,11 +19559,11 @@
       <c r="I218" s="3">
         <v>2</v>
       </c>
-      <c r="J218" s="3" t="str">
+      <c r="J218" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K218" s="3" t="str">
+      <c r="K218" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08385581782</v>
       </c>
@@ -19623,11 +19628,11 @@
       <c r="I219" s="3">
         <v>2</v>
       </c>
-      <c r="J219" s="3" t="str">
+      <c r="J219" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K219" s="3" t="str">
+      <c r="K219" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08385581782</v>
       </c>
@@ -19692,11 +19697,11 @@
       <c r="I220" s="3">
         <v>2</v>
       </c>
-      <c r="J220" s="3" t="str">
+      <c r="J220" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K220" s="3" t="str">
+      <c r="K220" s="4" t="str">
         <f t="shared" si="14"/>
         <v>81539754715</v>
       </c>
@@ -19761,11 +19766,11 @@
       <c r="I221" s="3">
         <v>2</v>
       </c>
-      <c r="J221" s="3" t="str">
+      <c r="J221" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K221" s="3" t="str">
+      <c r="K221" s="4" t="str">
         <f t="shared" si="14"/>
         <v>01208194739</v>
       </c>
@@ -19830,11 +19835,11 @@
       <c r="I222" s="3">
         <v>2</v>
       </c>
-      <c r="J222" s="3" t="str">
+      <c r="J222" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K222" s="3" t="str">
+      <c r="K222" s="4" t="str">
         <f t="shared" si="14"/>
         <v>01208194739</v>
       </c>
@@ -19899,11 +19904,11 @@
       <c r="I223" s="3">
         <v>2</v>
       </c>
-      <c r="J223" s="3" t="str">
+      <c r="J223" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K223" s="3" t="str">
+      <c r="K223" s="4" t="str">
         <f t="shared" si="14"/>
         <v>94139067772</v>
       </c>
@@ -19968,11 +19973,11 @@
       <c r="I224" s="3">
         <v>2</v>
       </c>
-      <c r="J224" s="3" t="str">
+      <c r="J224" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K224" s="3" t="str">
+      <c r="K224" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08564323770</v>
       </c>
@@ -20037,11 +20042,11 @@
       <c r="I225" s="3">
         <v>2</v>
       </c>
-      <c r="J225" s="3" t="str">
+      <c r="J225" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K225" s="3" t="str">
+      <c r="K225" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08564323770</v>
       </c>
@@ -20106,11 +20111,11 @@
       <c r="I226" s="3">
         <v>2</v>
       </c>
-      <c r="J226" s="3" t="str">
+      <c r="J226" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K226" s="3" t="str">
+      <c r="K226" s="4" t="str">
         <f t="shared" si="14"/>
         <v>88466914749</v>
       </c>
@@ -20175,11 +20180,11 @@
       <c r="I227" s="3">
         <v>2</v>
       </c>
-      <c r="J227" s="3" t="str">
+      <c r="J227" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K227" s="3" t="str">
+      <c r="K227" s="4" t="str">
         <f t="shared" si="14"/>
         <v>79539718791</v>
       </c>
@@ -20244,11 +20249,11 @@
       <c r="I228" s="3">
         <v>2</v>
       </c>
-      <c r="J228" s="3" t="str">
+      <c r="J228" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K228" s="3" t="str">
+      <c r="K228" s="4" t="str">
         <f t="shared" si="14"/>
         <v>79539718791</v>
       </c>
@@ -20313,11 +20318,11 @@
       <c r="I229" s="3">
         <v>2</v>
       </c>
-      <c r="J229" s="3" t="str">
+      <c r="J229" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K229" s="3" t="str">
+      <c r="K229" s="4" t="str">
         <f t="shared" si="14"/>
         <v>12411249730</v>
       </c>
@@ -20382,11 +20387,11 @@
       <c r="I230" s="3">
         <v>2</v>
       </c>
-      <c r="J230" s="3" t="str">
+      <c r="J230" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K230" s="3" t="str">
+      <c r="K230" s="4" t="str">
         <f t="shared" si="14"/>
         <v>04303703770</v>
       </c>
@@ -20451,11 +20456,11 @@
       <c r="I231" s="3">
         <v>2</v>
       </c>
-      <c r="J231" s="3" t="str">
+      <c r="J231" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K231" s="3" t="str">
+      <c r="K231" s="4" t="str">
         <f t="shared" si="14"/>
         <v>04303703770</v>
       </c>
@@ -20520,11 +20525,11 @@
       <c r="I232" s="3">
         <v>2</v>
       </c>
-      <c r="J232" s="3" t="str">
+      <c r="J232" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K232" s="3" t="str">
+      <c r="K232" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09374606720</v>
       </c>
@@ -20589,11 +20594,11 @@
       <c r="I233" s="3">
         <v>2</v>
       </c>
-      <c r="J233" s="3" t="str">
+      <c r="J233" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K233" s="3" t="str">
+      <c r="K233" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09374606720</v>
       </c>
@@ -20658,11 +20663,11 @@
       <c r="I234" s="3">
         <v>2</v>
       </c>
-      <c r="J234" s="3" t="str">
+      <c r="J234" s="4" t="str">
         <f t="shared" si="12"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K234" s="3" t="str">
+      <c r="K234" s="4" t="str">
         <f t="shared" si="14"/>
         <v>13814480708</v>
       </c>
@@ -20727,11 +20732,11 @@
       <c r="I235" s="3">
         <v>3</v>
       </c>
-      <c r="J235" s="3" t="str">
+      <c r="J235" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K235" s="3" t="str">
+      <c r="K235" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03747992706</v>
       </c>
@@ -20796,11 +20801,11 @@
       <c r="I236" s="3">
         <v>3</v>
       </c>
-      <c r="J236" s="3" t="str">
+      <c r="J236" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K236" s="3" t="str">
+      <c r="K236" s="4" t="str">
         <f t="shared" si="14"/>
         <v>10583797717</v>
       </c>
@@ -20865,11 +20870,11 @@
       <c r="I237" s="3">
         <v>3</v>
       </c>
-      <c r="J237" s="3" t="str">
+      <c r="J237" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K237" s="3" t="str">
+      <c r="K237" s="4" t="str">
         <f t="shared" si="14"/>
         <v>05670472705</v>
       </c>
@@ -20934,11 +20939,11 @@
       <c r="I238" s="3">
         <v>3</v>
       </c>
-      <c r="J238" s="3" t="str">
+      <c r="J238" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K238" s="3" t="str">
+      <c r="K238" s="4" t="str">
         <f t="shared" si="14"/>
         <v>10502293713</v>
       </c>
@@ -21003,11 +21008,11 @@
       <c r="I239" s="3">
         <v>3</v>
       </c>
-      <c r="J239" s="3" t="str">
+      <c r="J239" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K239" s="3" t="str">
+      <c r="K239" s="4" t="str">
         <f t="shared" si="14"/>
         <v>12987020708</v>
       </c>
@@ -21072,11 +21077,11 @@
       <c r="I240" s="3">
         <v>3</v>
       </c>
-      <c r="J240" s="3" t="str">
+      <c r="J240" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K240" s="3" t="str">
+      <c r="K240" s="4" t="str">
         <f t="shared" si="14"/>
         <v>11840018712</v>
       </c>
@@ -21141,11 +21146,11 @@
       <c r="I241" s="3">
         <v>3</v>
       </c>
-      <c r="J241" s="3" t="str">
+      <c r="J241" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K241" s="3" t="str">
+      <c r="K241" s="4" t="str">
         <f t="shared" si="14"/>
         <v>11840018712</v>
       </c>
@@ -21210,11 +21215,11 @@
       <c r="I242" s="3">
         <v>3</v>
       </c>
-      <c r="J242" s="3" t="str">
+      <c r="J242" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K242" s="3" t="str">
+      <c r="K242" s="4" t="str">
         <f t="shared" si="14"/>
         <v>11123487782</v>
       </c>
@@ -21279,11 +21284,11 @@
       <c r="I243" s="3">
         <v>3</v>
       </c>
-      <c r="J243" s="3" t="str">
+      <c r="J243" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K243" s="3" t="str">
+      <c r="K243" s="4" t="str">
         <f t="shared" si="14"/>
         <v>07896229714</v>
       </c>
@@ -21348,11 +21353,11 @@
       <c r="I244" s="3">
         <v>3</v>
       </c>
-      <c r="J244" s="3" t="str">
+      <c r="J244" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K244" s="3" t="str">
+      <c r="K244" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09711971720</v>
       </c>
@@ -21417,11 +21422,11 @@
       <c r="I245" s="3">
         <v>3</v>
       </c>
-      <c r="J245" s="3" t="str">
+      <c r="J245" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K245" s="3" t="str">
+      <c r="K245" s="4" t="str">
         <f t="shared" si="14"/>
         <v>09711971720</v>
       </c>
@@ -21486,11 +21491,11 @@
       <c r="I246" s="3">
         <v>3</v>
       </c>
-      <c r="J246" s="3" t="str">
+      <c r="J246" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K246" s="3" t="str">
+      <c r="K246" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08385581782</v>
       </c>
@@ -21555,11 +21560,11 @@
       <c r="I247" s="3">
         <v>3</v>
       </c>
-      <c r="J247" s="3" t="str">
+      <c r="J247" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K247" s="3" t="str">
+      <c r="K247" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08385581782</v>
       </c>
@@ -21624,11 +21629,11 @@
       <c r="I248" s="3">
         <v>3</v>
       </c>
-      <c r="J248" s="3" t="str">
+      <c r="J248" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K248" s="3" t="str">
+      <c r="K248" s="4" t="str">
         <f t="shared" si="14"/>
         <v>81539754715</v>
       </c>
@@ -21693,11 +21698,11 @@
       <c r="I249" s="3">
         <v>3</v>
       </c>
-      <c r="J249" s="3" t="str">
+      <c r="J249" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K249" s="3" t="str">
+      <c r="K249" s="4" t="str">
         <f t="shared" si="14"/>
         <v>81539754715</v>
       </c>
@@ -21762,11 +21767,11 @@
       <c r="I250" s="3">
         <v>3</v>
       </c>
-      <c r="J250" s="3" t="str">
+      <c r="J250" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K250" s="3" t="str">
+      <c r="K250" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08627124752</v>
       </c>
@@ -21831,11 +21836,11 @@
       <c r="I251" s="3">
         <v>3</v>
       </c>
-      <c r="J251" s="3" t="str">
+      <c r="J251" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K251" s="3" t="str">
+      <c r="K251" s="4" t="str">
         <f t="shared" si="14"/>
         <v>01241688761</v>
       </c>
@@ -21900,11 +21905,11 @@
       <c r="I252" s="3">
         <v>3</v>
       </c>
-      <c r="J252" s="3" t="str">
+      <c r="J252" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K252" s="3" t="str">
+      <c r="K252" s="4" t="str">
         <f t="shared" si="14"/>
         <v>01208194739</v>
       </c>
@@ -21969,11 +21974,11 @@
       <c r="I253" s="3">
         <v>3</v>
       </c>
-      <c r="J253" s="3" t="str">
+      <c r="J253" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K253" s="3" t="str">
+      <c r="K253" s="4" t="str">
         <f t="shared" si="14"/>
         <v>01208194739</v>
       </c>
@@ -22038,11 +22043,11 @@
       <c r="I254" s="3">
         <v>3</v>
       </c>
-      <c r="J254" s="3" t="str">
+      <c r="J254" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K254" s="3" t="str">
+      <c r="K254" s="4" t="str">
         <f t="shared" si="14"/>
         <v>94139067772</v>
       </c>
@@ -22107,11 +22112,11 @@
       <c r="I255" s="3">
         <v>3</v>
       </c>
-      <c r="J255" s="3" t="str">
+      <c r="J255" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K255" s="3" t="str">
+      <c r="K255" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08564323770</v>
       </c>
@@ -22176,11 +22181,11 @@
       <c r="I256" s="3">
         <v>3</v>
       </c>
-      <c r="J256" s="3" t="str">
+      <c r="J256" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K256" s="3" t="str">
+      <c r="K256" s="4" t="str">
         <f t="shared" si="14"/>
         <v>08564323770</v>
       </c>
@@ -22245,11 +22250,11 @@
       <c r="I257" s="3">
         <v>3</v>
       </c>
-      <c r="J257" s="3" t="str">
+      <c r="J257" s="4" t="str">
         <f t="shared" si="12"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K257" s="3" t="str">
+      <c r="K257" s="4" t="str">
         <f t="shared" si="14"/>
         <v>88466914749</v>
       </c>
@@ -22314,11 +22319,11 @@
       <c r="I258" s="3">
         <v>3</v>
       </c>
-      <c r="J258" s="3" t="str">
+      <c r="J258" s="4" t="str">
         <f t="shared" ref="J258:J321" si="16">IF(I258=1,"20:00 às 20:40",IF(I258=2,"21:00 às 21:40",IF(I258=3,"22:00 às 22:40",I258)))</f>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K258" s="3" t="str">
+      <c r="K258" s="4" t="str">
         <f t="shared" si="14"/>
         <v>79539718791</v>
       </c>
@@ -22383,11 +22388,11 @@
       <c r="I259" s="3">
         <v>3</v>
       </c>
-      <c r="J259" s="3" t="str">
+      <c r="J259" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K259" s="3" t="str">
+      <c r="K259" s="4" t="str">
         <f t="shared" ref="K259:K322" si="18">TEXT(A259,"00000000000")</f>
         <v>79539718791</v>
       </c>
@@ -22452,11 +22457,11 @@
       <c r="I260" s="3">
         <v>3</v>
       </c>
-      <c r="J260" s="3" t="str">
+      <c r="J260" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K260" s="3" t="str">
+      <c r="K260" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12299794760</v>
       </c>
@@ -22525,11 +22530,11 @@
       <c r="I261" s="3">
         <v>3</v>
       </c>
-      <c r="J261" s="3" t="str">
+      <c r="J261" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K261" s="3" t="str">
+      <c r="K261" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12411249730</v>
       </c>
@@ -22594,11 +22599,11 @@
       <c r="I262" s="3">
         <v>3</v>
       </c>
-      <c r="J262" s="3" t="str">
+      <c r="J262" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K262" s="3" t="str">
+      <c r="K262" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12411249730</v>
       </c>
@@ -22663,11 +22668,11 @@
       <c r="I263" s="3">
         <v>3</v>
       </c>
-      <c r="J263" s="3" t="str">
+      <c r="J263" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K263" s="3" t="str">
+      <c r="K263" s="4" t="str">
         <f t="shared" si="18"/>
         <v>09374606720</v>
       </c>
@@ -22732,11 +22737,11 @@
       <c r="I264" s="3">
         <v>3</v>
       </c>
-      <c r="J264" s="3" t="str">
+      <c r="J264" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K264" s="3" t="str">
+      <c r="K264" s="4" t="str">
         <f t="shared" si="18"/>
         <v>09374606720</v>
       </c>
@@ -22801,11 +22806,11 @@
       <c r="I265" s="3">
         <v>3</v>
       </c>
-      <c r="J265" s="3" t="str">
+      <c r="J265" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K265" s="3" t="str">
+      <c r="K265" s="4" t="str">
         <f t="shared" si="18"/>
         <v>39878702812</v>
       </c>
@@ -22870,11 +22875,11 @@
       <c r="I266" s="3">
         <v>3</v>
       </c>
-      <c r="J266" s="3" t="str">
+      <c r="J266" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K266" s="3" t="str">
+      <c r="K266" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04701149756</v>
       </c>
@@ -22939,11 +22944,11 @@
       <c r="I267" s="3">
         <v>3</v>
       </c>
-      <c r="J267" s="3" t="str">
+      <c r="J267" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K267" s="3" t="str">
+      <c r="K267" s="4" t="str">
         <f t="shared" si="18"/>
         <v>13814480708</v>
       </c>
@@ -23008,11 +23013,11 @@
       <c r="I268" s="3">
         <v>3</v>
       </c>
-      <c r="J268" s="3" t="str">
+      <c r="J268" s="4" t="str">
         <f t="shared" si="16"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K268" s="3" t="str">
+      <c r="K268" s="4" t="str">
         <f t="shared" si="18"/>
         <v>13814480708</v>
       </c>
@@ -23077,11 +23082,11 @@
       <c r="I269" s="3">
         <v>1</v>
       </c>
-      <c r="J269" s="3" t="str">
+      <c r="J269" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K269" s="3" t="str">
+      <c r="K269" s="4" t="str">
         <f t="shared" si="18"/>
         <v>03612773771</v>
       </c>
@@ -23146,11 +23151,11 @@
       <c r="I270" s="3">
         <v>1</v>
       </c>
-      <c r="J270" s="3" t="str">
+      <c r="J270" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K270" s="3" t="str">
+      <c r="K270" s="4" t="str">
         <f t="shared" si="18"/>
         <v>02500681769</v>
       </c>
@@ -23215,11 +23220,11 @@
       <c r="I271" s="3">
         <v>1</v>
       </c>
-      <c r="J271" s="3" t="str">
+      <c r="J271" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K271" s="3" t="str">
+      <c r="K271" s="4" t="str">
         <f t="shared" si="18"/>
         <v>05273261783</v>
       </c>
@@ -23284,11 +23289,11 @@
       <c r="I272" s="3">
         <v>1</v>
       </c>
-      <c r="J272" s="3" t="str">
+      <c r="J272" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K272" s="3" t="str">
+      <c r="K272" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04274535770</v>
       </c>
@@ -23353,11 +23358,11 @@
       <c r="I273" s="3">
         <v>1</v>
       </c>
-      <c r="J273" s="3" t="str">
+      <c r="J273" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K273" s="3" t="str">
+      <c r="K273" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04274535770</v>
       </c>
@@ -23422,11 +23427,11 @@
       <c r="I274" s="3">
         <v>1</v>
       </c>
-      <c r="J274" s="3" t="str">
+      <c r="J274" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K274" s="3" t="str">
+      <c r="K274" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04274535770</v>
       </c>
@@ -23491,11 +23496,11 @@
       <c r="I275" s="3">
         <v>1</v>
       </c>
-      <c r="J275" s="3" t="str">
+      <c r="J275" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K275" s="3" t="str">
+      <c r="K275" s="4" t="str">
         <f t="shared" si="18"/>
         <v>03747992706</v>
       </c>
@@ -23560,11 +23565,11 @@
       <c r="I276" s="3">
         <v>1</v>
       </c>
-      <c r="J276" s="3" t="str">
+      <c r="J276" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K276" s="3" t="str">
+      <c r="K276" s="4" t="str">
         <f t="shared" si="18"/>
         <v>02603392700</v>
       </c>
@@ -23629,11 +23634,11 @@
       <c r="I277" s="3">
         <v>1</v>
       </c>
-      <c r="J277" s="3" t="str">
+      <c r="J277" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K277" s="3" t="str">
+      <c r="K277" s="4" t="str">
         <f t="shared" si="18"/>
         <v>02603392700</v>
       </c>
@@ -23698,11 +23703,11 @@
       <c r="I278" s="3">
         <v>1</v>
       </c>
-      <c r="J278" s="3" t="str">
+      <c r="J278" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K278" s="3" t="str">
+      <c r="K278" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04625139635</v>
       </c>
@@ -23767,11 +23772,11 @@
       <c r="I279" s="3">
         <v>1</v>
       </c>
-      <c r="J279" s="3" t="str">
+      <c r="J279" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K279" s="3" t="str">
+      <c r="K279" s="4" t="str">
         <f t="shared" si="18"/>
         <v>04625139635</v>
       </c>
@@ -23836,11 +23841,11 @@
       <c r="I280" s="3">
         <v>1</v>
       </c>
-      <c r="J280" s="3" t="str">
+      <c r="J280" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K280" s="3" t="str">
+      <c r="K280" s="4" t="str">
         <f t="shared" si="18"/>
         <v>74670476734</v>
       </c>
@@ -23905,11 +23910,11 @@
       <c r="I281" s="3">
         <v>1</v>
       </c>
-      <c r="J281" s="3" t="str">
+      <c r="J281" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K281" s="3" t="str">
+      <c r="K281" s="4" t="str">
         <f t="shared" si="18"/>
         <v>74670476734</v>
       </c>
@@ -23974,11 +23979,11 @@
       <c r="I282" s="3">
         <v>1</v>
       </c>
-      <c r="J282" s="3" t="str">
+      <c r="J282" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K282" s="3" t="str">
+      <c r="K282" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10583797717</v>
       </c>
@@ -24043,11 +24048,11 @@
       <c r="I283" s="3">
         <v>1</v>
       </c>
-      <c r="J283" s="3" t="str">
+      <c r="J283" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K283" s="3" t="str">
+      <c r="K283" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10583797717</v>
       </c>
@@ -24112,11 +24117,11 @@
       <c r="I284" s="3">
         <v>1</v>
       </c>
-      <c r="J284" s="3" t="str">
+      <c r="J284" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K284" s="3" t="str">
+      <c r="K284" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12207468780</v>
       </c>
@@ -24181,11 +24186,11 @@
       <c r="I285" s="3">
         <v>1</v>
       </c>
-      <c r="J285" s="3" t="str">
+      <c r="J285" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K285" s="3" t="str">
+      <c r="K285" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12207468780</v>
       </c>
@@ -24250,11 +24255,11 @@
       <c r="I286" s="3">
         <v>1</v>
       </c>
-      <c r="J286" s="3" t="str">
+      <c r="J286" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K286" s="3" t="str">
+      <c r="K286" s="4" t="str">
         <f t="shared" si="18"/>
         <v>97364908749</v>
       </c>
@@ -24319,11 +24324,11 @@
       <c r="I287" s="3">
         <v>1</v>
       </c>
-      <c r="J287" s="3" t="str">
+      <c r="J287" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K287" s="3" t="str">
+      <c r="K287" s="4" t="str">
         <f t="shared" si="18"/>
         <v>97364908749</v>
       </c>
@@ -24388,11 +24393,11 @@
       <c r="I288" s="3">
         <v>1</v>
       </c>
-      <c r="J288" s="3" t="str">
+      <c r="J288" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K288" s="3" t="str">
+      <c r="K288" s="4" t="str">
         <f t="shared" si="18"/>
         <v>05258471705</v>
       </c>
@@ -24457,11 +24462,11 @@
       <c r="I289" s="3">
         <v>1</v>
       </c>
-      <c r="J289" s="3" t="str">
+      <c r="J289" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K289" s="3" t="str">
+      <c r="K289" s="4" t="str">
         <f t="shared" si="18"/>
         <v>00100477780</v>
       </c>
@@ -24526,11 +24531,11 @@
       <c r="I290" s="3">
         <v>1</v>
       </c>
-      <c r="J290" s="3" t="str">
+      <c r="J290" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K290" s="3" t="str">
+      <c r="K290" s="4" t="str">
         <f t="shared" si="18"/>
         <v>03361027713</v>
       </c>
@@ -24595,11 +24600,11 @@
       <c r="I291" s="3">
         <v>1</v>
       </c>
-      <c r="J291" s="3" t="str">
+      <c r="J291" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K291" s="3" t="str">
+      <c r="K291" s="4" t="str">
         <f t="shared" si="18"/>
         <v>03361027713</v>
       </c>
@@ -24664,11 +24669,11 @@
       <c r="I292" s="3">
         <v>1</v>
       </c>
-      <c r="J292" s="3" t="str">
+      <c r="J292" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K292" s="3" t="str">
+      <c r="K292" s="4" t="str">
         <f t="shared" si="18"/>
         <v>17034921709</v>
       </c>
@@ -24733,11 +24738,11 @@
       <c r="I293" s="3">
         <v>1</v>
       </c>
-      <c r="J293" s="3" t="str">
+      <c r="J293" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K293" s="3" t="str">
+      <c r="K293" s="4" t="str">
         <f t="shared" si="18"/>
         <v>07826719771</v>
       </c>
@@ -24802,11 +24807,11 @@
       <c r="I294" s="3">
         <v>1</v>
       </c>
-      <c r="J294" s="3" t="str">
+      <c r="J294" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K294" s="3" t="str">
+      <c r="K294" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10153294701</v>
       </c>
@@ -24871,11 +24876,11 @@
       <c r="I295" s="3">
         <v>1</v>
       </c>
-      <c r="J295" s="3" t="str">
+      <c r="J295" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K295" s="3" t="str">
+      <c r="K295" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10153294701</v>
       </c>
@@ -24940,11 +24945,11 @@
       <c r="I296" s="3">
         <v>1</v>
       </c>
-      <c r="J296" s="3" t="str">
+      <c r="J296" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K296" s="3" t="str">
+      <c r="K296" s="4" t="str">
         <f t="shared" si="18"/>
         <v>01602302766</v>
       </c>
@@ -25009,11 +25014,11 @@
       <c r="I297" s="3">
         <v>1</v>
       </c>
-      <c r="J297" s="3" t="str">
+      <c r="J297" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K297" s="3" t="str">
+      <c r="K297" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11784987786</v>
       </c>
@@ -25078,11 +25083,11 @@
       <c r="I298" s="3">
         <v>1</v>
       </c>
-      <c r="J298" s="3" t="str">
+      <c r="J298" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K298" s="3" t="str">
+      <c r="K298" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11784987786</v>
       </c>
@@ -25147,11 +25152,11 @@
       <c r="I299" s="3">
         <v>1</v>
       </c>
-      <c r="J299" s="3" t="str">
+      <c r="J299" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K299" s="3" t="str">
+      <c r="K299" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11784987786</v>
       </c>
@@ -25216,11 +25221,11 @@
       <c r="I300" s="3">
         <v>1</v>
       </c>
-      <c r="J300" s="3" t="str">
+      <c r="J300" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K300" s="3" t="str">
+      <c r="K300" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11784987786</v>
       </c>
@@ -25285,11 +25290,11 @@
       <c r="I301" s="3">
         <v>1</v>
       </c>
-      <c r="J301" s="3" t="str">
+      <c r="J301" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K301" s="3" t="str">
+      <c r="K301" s="4" t="str">
         <f t="shared" si="18"/>
         <v>07475879739</v>
       </c>
@@ -25354,11 +25359,11 @@
       <c r="I302" s="3">
         <v>1</v>
       </c>
-      <c r="J302" s="3" t="str">
+      <c r="J302" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K302" s="3" t="str">
+      <c r="K302" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10502293713</v>
       </c>
@@ -25423,11 +25428,11 @@
       <c r="I303" s="3">
         <v>1</v>
       </c>
-      <c r="J303" s="3" t="str">
+      <c r="J303" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K303" s="3" t="str">
+      <c r="K303" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12084568730</v>
       </c>
@@ -25492,11 +25497,11 @@
       <c r="I304" s="3">
         <v>1</v>
       </c>
-      <c r="J304" s="3" t="str">
+      <c r="J304" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K304" s="3" t="str">
+      <c r="K304" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12987020708</v>
       </c>
@@ -25561,11 +25566,11 @@
       <c r="I305" s="3">
         <v>1</v>
       </c>
-      <c r="J305" s="3" t="str">
+      <c r="J305" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K305" s="3" t="str">
+      <c r="K305" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12987020708</v>
       </c>
@@ -25630,11 +25635,11 @@
       <c r="I306" s="3">
         <v>1</v>
       </c>
-      <c r="J306" s="3" t="str">
+      <c r="J306" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K306" s="3" t="str">
+      <c r="K306" s="4" t="str">
         <f t="shared" si="18"/>
         <v>08931303700</v>
       </c>
@@ -25699,11 +25704,11 @@
       <c r="I307" s="3">
         <v>1</v>
       </c>
-      <c r="J307" s="3" t="str">
+      <c r="J307" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K307" s="3" t="str">
+      <c r="K307" s="4" t="str">
         <f t="shared" si="18"/>
         <v>92640923072</v>
       </c>
@@ -25768,11 +25773,11 @@
       <c r="I308" s="3">
         <v>1</v>
       </c>
-      <c r="J308" s="3" t="str">
+      <c r="J308" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K308" s="3" t="str">
+      <c r="K308" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11840018712</v>
       </c>
@@ -25837,11 +25842,11 @@
       <c r="I309" s="3">
         <v>1</v>
       </c>
-      <c r="J309" s="3" t="str">
+      <c r="J309" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K309" s="3" t="str">
+      <c r="K309" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11840018712</v>
       </c>
@@ -25906,11 +25911,11 @@
       <c r="I310" s="3">
         <v>1</v>
       </c>
-      <c r="J310" s="3" t="str">
+      <c r="J310" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K310" s="3" t="str">
+      <c r="K310" s="4" t="str">
         <f t="shared" si="18"/>
         <v>84674610710</v>
       </c>
@@ -25975,11 +25980,11 @@
       <c r="I311" s="3">
         <v>1</v>
       </c>
-      <c r="J311" s="3" t="str">
+      <c r="J311" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K311" s="3" t="str">
+      <c r="K311" s="4" t="str">
         <f t="shared" si="18"/>
         <v>08705475775</v>
       </c>
@@ -26044,11 +26049,11 @@
       <c r="I312" s="3">
         <v>1</v>
       </c>
-      <c r="J312" s="3" t="str">
+      <c r="J312" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K312" s="3" t="str">
+      <c r="K312" s="4" t="str">
         <f t="shared" si="18"/>
         <v>10250762730</v>
       </c>
@@ -26113,11 +26118,11 @@
       <c r="I313" s="3">
         <v>1</v>
       </c>
-      <c r="J313" s="3" t="str">
+      <c r="J313" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K313" s="3" t="str">
+      <c r="K313" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11123487782</v>
       </c>
@@ -26182,11 +26187,11 @@
       <c r="I314" s="3">
         <v>1</v>
       </c>
-      <c r="J314" s="3" t="str">
+      <c r="J314" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K314" s="3" t="str">
+      <c r="K314" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11123487782</v>
       </c>
@@ -26251,11 +26256,11 @@
       <c r="I315" s="3">
         <v>1</v>
       </c>
-      <c r="J315" s="3" t="str">
+      <c r="J315" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K315" s="3" t="str">
+      <c r="K315" s="4" t="str">
         <f t="shared" si="18"/>
         <v>12889314766</v>
       </c>
@@ -26320,11 +26325,11 @@
       <c r="I316" s="3">
         <v>1</v>
       </c>
-      <c r="J316" s="3" t="str">
+      <c r="J316" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K316" s="3" t="str">
+      <c r="K316" s="4" t="str">
         <f t="shared" si="18"/>
         <v>07536195710</v>
       </c>
@@ -26389,11 +26394,11 @@
       <c r="I317" s="3">
         <v>1</v>
       </c>
-      <c r="J317" s="3" t="str">
+      <c r="J317" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K317" s="3" t="str">
+      <c r="K317" s="4" t="str">
         <f t="shared" si="18"/>
         <v>07896229714</v>
       </c>
@@ -26458,11 +26463,11 @@
       <c r="I318" s="3">
         <v>1</v>
       </c>
-      <c r="J318" s="3" t="str">
+      <c r="J318" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K318" s="3" t="str">
+      <c r="K318" s="4" t="str">
         <f t="shared" si="18"/>
         <v>07896229714</v>
       </c>
@@ -26527,11 +26532,11 @@
       <c r="I319" s="3">
         <v>1</v>
       </c>
-      <c r="J319" s="3" t="str">
+      <c r="J319" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K319" s="3" t="str">
+      <c r="K319" s="4" t="str">
         <f t="shared" si="18"/>
         <v>09711971720</v>
       </c>
@@ -26596,11 +26601,11 @@
       <c r="I320" s="3">
         <v>1</v>
       </c>
-      <c r="J320" s="3" t="str">
+      <c r="J320" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K320" s="3" t="str">
+      <c r="K320" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11955721742</v>
       </c>
@@ -26665,11 +26670,11 @@
       <c r="I321" s="3">
         <v>1</v>
       </c>
-      <c r="J321" s="3" t="str">
+      <c r="J321" s="4" t="str">
         <f t="shared" si="16"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K321" s="3" t="str">
+      <c r="K321" s="4" t="str">
         <f t="shared" si="18"/>
         <v>11955721742</v>
       </c>
@@ -26734,11 +26739,11 @@
       <c r="I322" s="3">
         <v>1</v>
       </c>
-      <c r="J322" s="3" t="str">
+      <c r="J322" s="4" t="str">
         <f t="shared" ref="J322:J385" si="20">IF(I322=1,"20:00 às 20:40",IF(I322=2,"21:00 às 21:40",IF(I322=3,"22:00 às 22:40",I322)))</f>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K322" s="3" t="str">
+      <c r="K322" s="4" t="str">
         <f t="shared" si="18"/>
         <v>89438744720</v>
       </c>
@@ -26803,11 +26808,11 @@
       <c r="I323" s="3">
         <v>1</v>
       </c>
-      <c r="J323" s="3" t="str">
+      <c r="J323" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K323" s="3" t="str">
+      <c r="K323" s="4" t="str">
         <f t="shared" ref="K323:K386" si="22">TEXT(A323,"00000000000")</f>
         <v>89438744720</v>
       </c>
@@ -26872,11 +26877,11 @@
       <c r="I324" s="3">
         <v>1</v>
       </c>
-      <c r="J324" s="3" t="str">
+      <c r="J324" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K324" s="3" t="str">
+      <c r="K324" s="4" t="str">
         <f t="shared" si="22"/>
         <v>08385581782</v>
       </c>
@@ -26945,11 +26950,11 @@
       <c r="I325" s="3">
         <v>1</v>
       </c>
-      <c r="J325" s="3" t="str">
+      <c r="J325" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K325" s="3" t="str">
+      <c r="K325" s="4" t="str">
         <f t="shared" si="22"/>
         <v>08385581782</v>
       </c>
@@ -27014,11 +27019,11 @@
       <c r="I326" s="3">
         <v>1</v>
       </c>
-      <c r="J326" s="3" t="str">
+      <c r="J326" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K326" s="3" t="str">
+      <c r="K326" s="4" t="str">
         <f t="shared" si="22"/>
         <v>17373628729</v>
       </c>
@@ -27083,11 +27088,11 @@
       <c r="I327" s="3">
         <v>1</v>
       </c>
-      <c r="J327" s="3" t="str">
+      <c r="J327" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K327" s="3" t="str">
+      <c r="K327" s="4" t="str">
         <f t="shared" si="22"/>
         <v>11068381736</v>
       </c>
@@ -27152,11 +27157,11 @@
       <c r="I328" s="3">
         <v>1</v>
       </c>
-      <c r="J328" s="3" t="str">
+      <c r="J328" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K328" s="3" t="str">
+      <c r="K328" s="4" t="str">
         <f t="shared" si="22"/>
         <v>11068381736</v>
       </c>
@@ -27221,11 +27226,11 @@
       <c r="I329" s="3">
         <v>1</v>
       </c>
-      <c r="J329" s="3" t="str">
+      <c r="J329" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K329" s="3" t="str">
+      <c r="K329" s="4" t="str">
         <f t="shared" si="22"/>
         <v>81539754715</v>
       </c>
@@ -27290,11 +27295,11 @@
       <c r="I330" s="3">
         <v>1</v>
       </c>
-      <c r="J330" s="3" t="str">
+      <c r="J330" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K330" s="3" t="str">
+      <c r="K330" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01241688761</v>
       </c>
@@ -27359,11 +27364,11 @@
       <c r="I331" s="3">
         <v>1</v>
       </c>
-      <c r="J331" s="3" t="str">
+      <c r="J331" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K331" s="3" t="str">
+      <c r="K331" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04285779706</v>
       </c>
@@ -27428,11 +27433,11 @@
       <c r="I332" s="3">
         <v>1</v>
       </c>
-      <c r="J332" s="3" t="str">
+      <c r="J332" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K332" s="3" t="str">
+      <c r="K332" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04285779706</v>
       </c>
@@ -27497,11 +27502,11 @@
       <c r="I333" s="3">
         <v>1</v>
       </c>
-      <c r="J333" s="3" t="str">
+      <c r="J333" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K333" s="3" t="str">
+      <c r="K333" s="4" t="str">
         <f t="shared" si="22"/>
         <v>94139067772</v>
       </c>
@@ -27566,11 +27571,11 @@
       <c r="I334" s="3">
         <v>1</v>
       </c>
-      <c r="J334" s="3" t="str">
+      <c r="J334" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K334" s="3" t="str">
+      <c r="K334" s="4" t="str">
         <f t="shared" si="22"/>
         <v>94139067772</v>
       </c>
@@ -27635,11 +27640,11 @@
       <c r="I335" s="3">
         <v>1</v>
       </c>
-      <c r="J335" s="3" t="str">
+      <c r="J335" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K335" s="3" t="str">
+      <c r="K335" s="4" t="str">
         <f t="shared" si="22"/>
         <v>94139067772</v>
       </c>
@@ -27704,11 +27709,11 @@
       <c r="I336" s="3">
         <v>1</v>
       </c>
-      <c r="J336" s="3" t="str">
+      <c r="J336" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K336" s="3" t="str">
+      <c r="K336" s="4" t="str">
         <f t="shared" si="22"/>
         <v>94139067772</v>
       </c>
@@ -27773,11 +27778,11 @@
       <c r="I337" s="3">
         <v>1</v>
       </c>
-      <c r="J337" s="3" t="str">
+      <c r="J337" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K337" s="3" t="str">
+      <c r="K337" s="4" t="str">
         <f t="shared" si="22"/>
         <v>08239558771</v>
       </c>
@@ -27842,11 +27847,11 @@
       <c r="I338" s="3">
         <v>1</v>
       </c>
-      <c r="J338" s="3" t="str">
+      <c r="J338" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K338" s="3" t="str">
+      <c r="K338" s="4" t="str">
         <f t="shared" si="22"/>
         <v>08239558771</v>
       </c>
@@ -27911,11 +27916,11 @@
       <c r="I339" s="3">
         <v>1</v>
       </c>
-      <c r="J339" s="3" t="str">
+      <c r="J339" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K339" s="3" t="str">
+      <c r="K339" s="4" t="str">
         <f t="shared" si="22"/>
         <v>88887359768</v>
       </c>
@@ -27980,11 +27985,11 @@
       <c r="I340" s="3">
         <v>1</v>
       </c>
-      <c r="J340" s="3" t="str">
+      <c r="J340" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K340" s="3" t="str">
+      <c r="K340" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05868296796</v>
       </c>
@@ -28049,11 +28054,11 @@
       <c r="I341" s="3">
         <v>1</v>
       </c>
-      <c r="J341" s="3" t="str">
+      <c r="J341" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K341" s="3" t="str">
+      <c r="K341" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05868296796</v>
       </c>
@@ -28118,11 +28123,11 @@
       <c r="I342" s="3">
         <v>1</v>
       </c>
-      <c r="J342" s="3" t="str">
+      <c r="J342" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K342" s="3" t="str">
+      <c r="K342" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01863089730</v>
       </c>
@@ -28187,11 +28192,11 @@
       <c r="I343" s="3">
         <v>1</v>
       </c>
-      <c r="J343" s="3" t="str">
+      <c r="J343" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K343" s="3" t="str">
+      <c r="K343" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01863089730</v>
       </c>
@@ -28256,11 +28261,11 @@
       <c r="I344" s="3">
         <v>1</v>
       </c>
-      <c r="J344" s="3" t="str">
+      <c r="J344" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K344" s="3" t="str">
+      <c r="K344" s="4" t="str">
         <f t="shared" si="22"/>
         <v>88466914749</v>
       </c>
@@ -28325,11 +28330,11 @@
       <c r="I345" s="3">
         <v>1</v>
       </c>
-      <c r="J345" s="3" t="str">
+      <c r="J345" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K345" s="3" t="str">
+      <c r="K345" s="4" t="str">
         <f t="shared" si="22"/>
         <v>88466914749</v>
       </c>
@@ -28394,11 +28399,11 @@
       <c r="I346" s="3">
         <v>1</v>
       </c>
-      <c r="J346" s="3" t="str">
+      <c r="J346" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K346" s="3" t="str">
+      <c r="K346" s="4" t="str">
         <f t="shared" si="22"/>
         <v>12184618705</v>
       </c>
@@ -28463,11 +28468,11 @@
       <c r="I347" s="3">
         <v>1</v>
       </c>
-      <c r="J347" s="3" t="str">
+      <c r="J347" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K347" s="3" t="str">
+      <c r="K347" s="4" t="str">
         <f t="shared" si="22"/>
         <v>07149274730</v>
       </c>
@@ -28532,11 +28537,11 @@
       <c r="I348" s="3">
         <v>1</v>
       </c>
-      <c r="J348" s="3" t="str">
+      <c r="J348" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K348" s="3" t="str">
+      <c r="K348" s="4" t="str">
         <f t="shared" si="22"/>
         <v>07149274730</v>
       </c>
@@ -28601,11 +28606,11 @@
       <c r="I349" s="3">
         <v>1</v>
       </c>
-      <c r="J349" s="3" t="str">
+      <c r="J349" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K349" s="3" t="str">
+      <c r="K349" s="4" t="str">
         <f t="shared" si="22"/>
         <v>03665806712</v>
       </c>
@@ -28670,11 +28675,11 @@
       <c r="I350" s="3">
         <v>1</v>
       </c>
-      <c r="J350" s="3" t="str">
+      <c r="J350" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K350" s="3" t="str">
+      <c r="K350" s="4" t="str">
         <f t="shared" si="22"/>
         <v>13610048786</v>
       </c>
@@ -28739,11 +28744,11 @@
       <c r="I351" s="3">
         <v>1</v>
       </c>
-      <c r="J351" s="3" t="str">
+      <c r="J351" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K351" s="3" t="str">
+      <c r="K351" s="4" t="str">
         <f t="shared" si="22"/>
         <v>12299794760</v>
       </c>
@@ -28808,11 +28813,11 @@
       <c r="I352" s="3">
         <v>1</v>
       </c>
-      <c r="J352" s="3" t="str">
+      <c r="J352" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K352" s="3" t="str">
+      <c r="K352" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01641334703</v>
       </c>
@@ -28877,11 +28882,11 @@
       <c r="I353" s="3">
         <v>1</v>
       </c>
-      <c r="J353" s="3" t="str">
+      <c r="J353" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K353" s="3" t="str">
+      <c r="K353" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01641334703</v>
       </c>
@@ -28946,11 +28951,11 @@
       <c r="I354" s="3">
         <v>1</v>
       </c>
-      <c r="J354" s="3" t="str">
+      <c r="J354" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K354" s="3" t="str">
+      <c r="K354" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00364406712</v>
       </c>
@@ -29015,11 +29020,11 @@
       <c r="I355" s="3">
         <v>1</v>
       </c>
-      <c r="J355" s="3" t="str">
+      <c r="J355" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K355" s="3" t="str">
+      <c r="K355" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05682394747</v>
       </c>
@@ -29084,11 +29089,11 @@
       <c r="I356" s="3">
         <v>1</v>
       </c>
-      <c r="J356" s="3" t="str">
+      <c r="J356" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K356" s="3" t="str">
+      <c r="K356" s="4" t="str">
         <f t="shared" si="22"/>
         <v>12411249730</v>
       </c>
@@ -29153,11 +29158,11 @@
       <c r="I357" s="3">
         <v>1</v>
       </c>
-      <c r="J357" s="3" t="str">
+      <c r="J357" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K357" s="3" t="str">
+      <c r="K357" s="4" t="str">
         <f t="shared" si="22"/>
         <v>16030802798</v>
       </c>
@@ -29222,11 +29227,11 @@
       <c r="I358" s="3">
         <v>1</v>
       </c>
-      <c r="J358" s="3" t="str">
+      <c r="J358" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K358" s="3" t="str">
+      <c r="K358" s="4" t="str">
         <f t="shared" si="22"/>
         <v>16030802798</v>
       </c>
@@ -29291,11 +29296,11 @@
       <c r="I359" s="3">
         <v>1</v>
       </c>
-      <c r="J359" s="3" t="str">
+      <c r="J359" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K359" s="3" t="str">
+      <c r="K359" s="4" t="str">
         <f t="shared" si="22"/>
         <v>09374606720</v>
       </c>
@@ -29360,11 +29365,11 @@
       <c r="I360" s="3">
         <v>1</v>
       </c>
-      <c r="J360" s="3" t="str">
+      <c r="J360" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K360" s="3" t="str">
+      <c r="K360" s="4" t="str">
         <f t="shared" si="22"/>
         <v>09374606720</v>
       </c>
@@ -29429,11 +29434,11 @@
       <c r="I361" s="3">
         <v>1</v>
       </c>
-      <c r="J361" s="3" t="str">
+      <c r="J361" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K361" s="3" t="str">
+      <c r="K361" s="4" t="str">
         <f t="shared" si="22"/>
         <v>39878702812</v>
       </c>
@@ -29498,11 +29503,11 @@
       <c r="I362" s="3">
         <v>1</v>
       </c>
-      <c r="J362" s="3" t="str">
+      <c r="J362" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K362" s="3" t="str">
+      <c r="K362" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04701149756</v>
       </c>
@@ -29567,11 +29572,11 @@
       <c r="I363" s="3">
         <v>1</v>
       </c>
-      <c r="J363" s="3" t="str">
+      <c r="J363" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K363" s="3" t="str">
+      <c r="K363" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05194533799</v>
       </c>
@@ -29636,11 +29641,11 @@
       <c r="I364" s="3">
         <v>1</v>
       </c>
-      <c r="J364" s="3" t="str">
+      <c r="J364" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K364" s="3" t="str">
+      <c r="K364" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05194533799</v>
       </c>
@@ -29705,11 +29710,11 @@
       <c r="I365" s="3">
         <v>1</v>
       </c>
-      <c r="J365" s="3" t="str">
+      <c r="J365" s="4" t="str">
         <f t="shared" si="20"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K365" s="3" t="str">
+      <c r="K365" s="4" t="str">
         <f t="shared" si="22"/>
         <v>13814480708</v>
       </c>
@@ -29774,11 +29779,11 @@
       <c r="I366" s="3">
         <v>2</v>
       </c>
-      <c r="J366" s="3" t="str">
+      <c r="J366" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K366" s="3" t="str">
+      <c r="K366" s="4" t="str">
         <f t="shared" si="22"/>
         <v>03612773771</v>
       </c>
@@ -29843,11 +29848,11 @@
       <c r="I367" s="3">
         <v>2</v>
       </c>
-      <c r="J367" s="3" t="str">
+      <c r="J367" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K367" s="3" t="str">
+      <c r="K367" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04274535770</v>
       </c>
@@ -29912,11 +29917,11 @@
       <c r="I368" s="3">
         <v>2</v>
       </c>
-      <c r="J368" s="3" t="str">
+      <c r="J368" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K368" s="3" t="str">
+      <c r="K368" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04274535770</v>
       </c>
@@ -29981,11 +29986,11 @@
       <c r="I369" s="3">
         <v>2</v>
       </c>
-      <c r="J369" s="3" t="str">
+      <c r="J369" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K369" s="3" t="str">
+      <c r="K369" s="4" t="str">
         <f t="shared" si="22"/>
         <v>29804168863</v>
       </c>
@@ -30050,11 +30055,11 @@
       <c r="I370" s="3">
         <v>2</v>
       </c>
-      <c r="J370" s="3" t="str">
+      <c r="J370" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K370" s="3" t="str">
+      <c r="K370" s="4" t="str">
         <f t="shared" si="22"/>
         <v>29804168863</v>
       </c>
@@ -30119,11 +30124,11 @@
       <c r="I371" s="3">
         <v>2</v>
       </c>
-      <c r="J371" s="3" t="str">
+      <c r="J371" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K371" s="3" t="str">
+      <c r="K371" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04625139635</v>
       </c>
@@ -30188,11 +30193,11 @@
       <c r="I372" s="3">
         <v>2</v>
       </c>
-      <c r="J372" s="3" t="str">
+      <c r="J372" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K372" s="3" t="str">
+      <c r="K372" s="4" t="str">
         <f t="shared" si="22"/>
         <v>04625139635</v>
       </c>
@@ -30257,11 +30262,11 @@
       <c r="I373" s="3">
         <v>2</v>
       </c>
-      <c r="J373" s="3" t="str">
+      <c r="J373" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K373" s="3" t="str">
+      <c r="K373" s="4" t="str">
         <f t="shared" si="22"/>
         <v>74670476734</v>
       </c>
@@ -30326,11 +30331,11 @@
       <c r="I374" s="3">
         <v>2</v>
       </c>
-      <c r="J374" s="3" t="str">
+      <c r="J374" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K374" s="3" t="str">
+      <c r="K374" s="4" t="str">
         <f t="shared" si="22"/>
         <v>74670476734</v>
       </c>
@@ -30395,11 +30400,11 @@
       <c r="I375" s="3">
         <v>2</v>
       </c>
-      <c r="J375" s="3" t="str">
+      <c r="J375" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K375" s="3" t="str">
+      <c r="K375" s="4" t="str">
         <f t="shared" si="22"/>
         <v>10583797717</v>
       </c>
@@ -30464,11 +30469,11 @@
       <c r="I376" s="3">
         <v>2</v>
       </c>
-      <c r="J376" s="3" t="str">
+      <c r="J376" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K376" s="3" t="str">
+      <c r="K376" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05670472705</v>
       </c>
@@ -30533,11 +30538,11 @@
       <c r="I377" s="3">
         <v>2</v>
       </c>
-      <c r="J377" s="3" t="str">
+      <c r="J377" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K377" s="3" t="str">
+      <c r="K377" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05258471705</v>
       </c>
@@ -30602,11 +30607,11 @@
       <c r="I378" s="3">
         <v>2</v>
       </c>
-      <c r="J378" s="3" t="str">
+      <c r="J378" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K378" s="3" t="str">
+      <c r="K378" s="4" t="str">
         <f t="shared" si="22"/>
         <v>05258471705</v>
       </c>
@@ -30671,11 +30676,11 @@
       <c r="I379" s="3">
         <v>2</v>
       </c>
-      <c r="J379" s="3" t="str">
+      <c r="J379" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K379" s="3" t="str">
+      <c r="K379" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00100477780</v>
       </c>
@@ -30740,11 +30745,11 @@
       <c r="I380" s="3">
         <v>2</v>
       </c>
-      <c r="J380" s="3" t="str">
+      <c r="J380" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K380" s="3" t="str">
+      <c r="K380" s="4" t="str">
         <f t="shared" si="22"/>
         <v>03361027713</v>
       </c>
@@ -30809,11 +30814,11 @@
       <c r="I381" s="3">
         <v>2</v>
       </c>
-      <c r="J381" s="3" t="str">
+      <c r="J381" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K381" s="3" t="str">
+      <c r="K381" s="4" t="str">
         <f t="shared" si="22"/>
         <v>07826719771</v>
       </c>
@@ -30878,11 +30883,11 @@
       <c r="I382" s="3">
         <v>2</v>
       </c>
-      <c r="J382" s="3" t="str">
+      <c r="J382" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K382" s="3" t="str">
+      <c r="K382" s="4" t="str">
         <f t="shared" si="22"/>
         <v>10153294701</v>
       </c>
@@ -30947,11 +30952,11 @@
       <c r="I383" s="3">
         <v>2</v>
       </c>
-      <c r="J383" s="3" t="str">
+      <c r="J383" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K383" s="3" t="str">
+      <c r="K383" s="4" t="str">
         <f t="shared" si="22"/>
         <v>10153294701</v>
       </c>
@@ -31016,11 +31021,11 @@
       <c r="I384" s="3">
         <v>2</v>
       </c>
-      <c r="J384" s="3" t="str">
+      <c r="J384" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K384" s="3" t="str">
+      <c r="K384" s="4" t="str">
         <f t="shared" si="22"/>
         <v>01602302766</v>
       </c>
@@ -31085,11 +31090,11 @@
       <c r="I385" s="3">
         <v>2</v>
       </c>
-      <c r="J385" s="3" t="str">
+      <c r="J385" s="4" t="str">
         <f t="shared" si="20"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K385" s="3" t="str">
+      <c r="K385" s="4" t="str">
         <f t="shared" si="22"/>
         <v>10502293713</v>
       </c>
@@ -31154,11 +31159,11 @@
       <c r="I386" s="3">
         <v>2</v>
       </c>
-      <c r="J386" s="3" t="str">
+      <c r="J386" s="4" t="str">
         <f t="shared" ref="J386:J449" si="24">IF(I386=1,"20:00 às 20:40",IF(I386=2,"21:00 às 21:40",IF(I386=3,"22:00 às 22:40",I386)))</f>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K386" s="3" t="str">
+      <c r="K386" s="4" t="str">
         <f t="shared" si="22"/>
         <v>12084568730</v>
       </c>
@@ -31223,11 +31228,11 @@
       <c r="I387" s="3">
         <v>2</v>
       </c>
-      <c r="J387" s="3" t="str">
+      <c r="J387" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K387" s="3" t="str">
+      <c r="K387" s="4" t="str">
         <f t="shared" ref="K387:K450" si="26">TEXT(A387,"00000000000")</f>
         <v>08931303700</v>
       </c>
@@ -31292,11 +31297,11 @@
       <c r="I388" s="3">
         <v>2</v>
       </c>
-      <c r="J388" s="3" t="str">
+      <c r="J388" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K388" s="3" t="str">
+      <c r="K388" s="4" t="str">
         <f t="shared" si="26"/>
         <v>92640923072</v>
       </c>
@@ -31365,11 +31370,11 @@
       <c r="I389" s="3">
         <v>2</v>
       </c>
-      <c r="J389" s="3" t="str">
+      <c r="J389" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K389" s="3" t="str">
+      <c r="K389" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11840018712</v>
       </c>
@@ -31434,11 +31439,11 @@
       <c r="I390" s="3">
         <v>2</v>
       </c>
-      <c r="J390" s="3" t="str">
+      <c r="J390" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K390" s="3" t="str">
+      <c r="K390" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08705475775</v>
       </c>
@@ -31503,11 +31508,11 @@
       <c r="I391" s="3">
         <v>2</v>
       </c>
-      <c r="J391" s="3" t="str">
+      <c r="J391" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K391" s="3" t="str">
+      <c r="K391" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08705475775</v>
       </c>
@@ -31572,11 +31577,11 @@
       <c r="I392" s="3">
         <v>2</v>
       </c>
-      <c r="J392" s="3" t="str">
+      <c r="J392" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K392" s="3" t="str">
+      <c r="K392" s="4" t="str">
         <f t="shared" si="26"/>
         <v>10250762730</v>
       </c>
@@ -31641,11 +31646,11 @@
       <c r="I393" s="3">
         <v>2</v>
       </c>
-      <c r="J393" s="3" t="str">
+      <c r="J393" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K393" s="3" t="str">
+      <c r="K393" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11123487782</v>
       </c>
@@ -31710,11 +31715,11 @@
       <c r="I394" s="3">
         <v>2</v>
       </c>
-      <c r="J394" s="3" t="str">
+      <c r="J394" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K394" s="3" t="str">
+      <c r="K394" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11123487782</v>
       </c>
@@ -31779,11 +31784,11 @@
       <c r="I395" s="3">
         <v>2</v>
       </c>
-      <c r="J395" s="3" t="str">
+      <c r="J395" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K395" s="3" t="str">
+      <c r="K395" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12889314766</v>
       </c>
@@ -31848,11 +31853,11 @@
       <c r="I396" s="3">
         <v>2</v>
       </c>
-      <c r="J396" s="3" t="str">
+      <c r="J396" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K396" s="3" t="str">
+      <c r="K396" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12889314766</v>
       </c>
@@ -31917,11 +31922,11 @@
       <c r="I397" s="3">
         <v>2</v>
       </c>
-      <c r="J397" s="3" t="str">
+      <c r="J397" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K397" s="3" t="str">
+      <c r="K397" s="4" t="str">
         <f t="shared" si="26"/>
         <v>07536195710</v>
       </c>
@@ -31986,11 +31991,11 @@
       <c r="I398" s="3">
         <v>2</v>
       </c>
-      <c r="J398" s="3" t="str">
+      <c r="J398" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K398" s="3" t="str">
+      <c r="K398" s="4" t="str">
         <f t="shared" si="26"/>
         <v>07536195710</v>
       </c>
@@ -32055,11 +32060,11 @@
       <c r="I399" s="3">
         <v>2</v>
       </c>
-      <c r="J399" s="3" t="str">
+      <c r="J399" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K399" s="3" t="str">
+      <c r="K399" s="4" t="str">
         <f t="shared" si="26"/>
         <v>07896229714</v>
       </c>
@@ -32124,11 +32129,11 @@
       <c r="I400" s="3">
         <v>2</v>
       </c>
-      <c r="J400" s="3" t="str">
+      <c r="J400" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K400" s="3" t="str">
+      <c r="K400" s="4" t="str">
         <f t="shared" si="26"/>
         <v>09711971720</v>
       </c>
@@ -32193,11 +32198,11 @@
       <c r="I401" s="3">
         <v>2</v>
       </c>
-      <c r="J401" s="3" t="str">
+      <c r="J401" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K401" s="3" t="str">
+      <c r="K401" s="4" t="str">
         <f t="shared" si="26"/>
         <v>09711971720</v>
       </c>
@@ -32262,11 +32267,11 @@
       <c r="I402" s="3">
         <v>2</v>
       </c>
-      <c r="J402" s="3" t="str">
+      <c r="J402" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K402" s="3" t="str">
+      <c r="K402" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11955721742</v>
       </c>
@@ -32331,11 +32336,11 @@
       <c r="I403" s="3">
         <v>2</v>
       </c>
-      <c r="J403" s="3" t="str">
+      <c r="J403" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K403" s="3" t="str">
+      <c r="K403" s="4" t="str">
         <f t="shared" si="26"/>
         <v>89438744720</v>
       </c>
@@ -32400,11 +32405,11 @@
       <c r="I404" s="3">
         <v>2</v>
       </c>
-      <c r="J404" s="3" t="str">
+      <c r="J404" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K404" s="3" t="str">
+      <c r="K404" s="4" t="str">
         <f t="shared" si="26"/>
         <v>89438744720</v>
       </c>
@@ -32469,11 +32474,11 @@
       <c r="I405" s="3">
         <v>2</v>
       </c>
-      <c r="J405" s="3" t="str">
+      <c r="J405" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K405" s="3" t="str">
+      <c r="K405" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08385581782</v>
       </c>
@@ -32538,11 +32543,11 @@
       <c r="I406" s="3">
         <v>2</v>
       </c>
-      <c r="J406" s="3" t="str">
+      <c r="J406" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K406" s="3" t="str">
+      <c r="K406" s="4" t="str">
         <f t="shared" si="26"/>
         <v>17373628729</v>
       </c>
@@ -32607,11 +32612,11 @@
       <c r="I407" s="3">
         <v>2</v>
       </c>
-      <c r="J407" s="3" t="str">
+      <c r="J407" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K407" s="3" t="str">
+      <c r="K407" s="4" t="str">
         <f t="shared" si="26"/>
         <v>17373628729</v>
       </c>
@@ -32676,11 +32681,11 @@
       <c r="I408" s="3">
         <v>2</v>
       </c>
-      <c r="J408" s="3" t="str">
+      <c r="J408" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K408" s="3" t="str">
+      <c r="K408" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11068381736</v>
       </c>
@@ -32745,11 +32750,11 @@
       <c r="I409" s="3">
         <v>2</v>
       </c>
-      <c r="J409" s="3" t="str">
+      <c r="J409" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K409" s="3" t="str">
+      <c r="K409" s="4" t="str">
         <f t="shared" si="26"/>
         <v>11068381736</v>
       </c>
@@ -32814,11 +32819,11 @@
       <c r="I410" s="3">
         <v>2</v>
       </c>
-      <c r="J410" s="3" t="str">
+      <c r="J410" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K410" s="3" t="str">
+      <c r="K410" s="4" t="str">
         <f t="shared" si="26"/>
         <v>94139067772</v>
       </c>
@@ -32883,11 +32888,11 @@
       <c r="I411" s="3">
         <v>2</v>
       </c>
-      <c r="J411" s="3" t="str">
+      <c r="J411" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K411" s="3" t="str">
+      <c r="K411" s="4" t="str">
         <f t="shared" si="26"/>
         <v>94139067772</v>
       </c>
@@ -32952,11 +32957,11 @@
       <c r="I412" s="3">
         <v>2</v>
       </c>
-      <c r="J412" s="3" t="str">
+      <c r="J412" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K412" s="3" t="str">
+      <c r="K412" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08239558771</v>
       </c>
@@ -33021,11 +33026,11 @@
       <c r="I413" s="3">
         <v>2</v>
       </c>
-      <c r="J413" s="3" t="str">
+      <c r="J413" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K413" s="3" t="str">
+      <c r="K413" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08239558771</v>
       </c>
@@ -33090,11 +33095,11 @@
       <c r="I414" s="3">
         <v>2</v>
       </c>
-      <c r="J414" s="3" t="str">
+      <c r="J414" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K414" s="3" t="str">
+      <c r="K414" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08239558771</v>
       </c>
@@ -33159,11 +33164,11 @@
       <c r="I415" s="3">
         <v>2</v>
       </c>
-      <c r="J415" s="3" t="str">
+      <c r="J415" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K415" s="3" t="str">
+      <c r="K415" s="4" t="str">
         <f t="shared" si="26"/>
         <v>88887359768</v>
       </c>
@@ -33228,11 +33233,11 @@
       <c r="I416" s="3">
         <v>2</v>
       </c>
-      <c r="J416" s="3" t="str">
+      <c r="J416" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K416" s="3" t="str">
+      <c r="K416" s="4" t="str">
         <f t="shared" si="26"/>
         <v>88887359768</v>
       </c>
@@ -33297,11 +33302,11 @@
       <c r="I417" s="3">
         <v>2</v>
       </c>
-      <c r="J417" s="3" t="str">
+      <c r="J417" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K417" s="3" t="str">
+      <c r="K417" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05868296796</v>
       </c>
@@ -33366,11 +33371,11 @@
       <c r="I418" s="3">
         <v>2</v>
       </c>
-      <c r="J418" s="3" t="str">
+      <c r="J418" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K418" s="3" t="str">
+      <c r="K418" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05868296796</v>
       </c>
@@ -33435,11 +33440,11 @@
       <c r="I419" s="3">
         <v>2</v>
       </c>
-      <c r="J419" s="3" t="str">
+      <c r="J419" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K419" s="3" t="str">
+      <c r="K419" s="4" t="str">
         <f t="shared" si="26"/>
         <v>01863089730</v>
       </c>
@@ -33504,11 +33509,11 @@
       <c r="I420" s="3">
         <v>2</v>
       </c>
-      <c r="J420" s="3" t="str">
+      <c r="J420" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K420" s="3" t="str">
+      <c r="K420" s="4" t="str">
         <f t="shared" si="26"/>
         <v>01863089730</v>
       </c>
@@ -33573,11 +33578,11 @@
       <c r="I421" s="3">
         <v>2</v>
       </c>
-      <c r="J421" s="3" t="str">
+      <c r="J421" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K421" s="3" t="str">
+      <c r="K421" s="4" t="str">
         <f t="shared" si="26"/>
         <v>88466914749</v>
       </c>
@@ -33642,11 +33647,11 @@
       <c r="I422" s="3">
         <v>2</v>
       </c>
-      <c r="J422" s="3" t="str">
+      <c r="J422" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K422" s="3" t="str">
+      <c r="K422" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12184618705</v>
       </c>
@@ -33711,11 +33716,11 @@
       <c r="I423" s="3">
         <v>2</v>
       </c>
-      <c r="J423" s="3" t="str">
+      <c r="J423" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K423" s="3" t="str">
+      <c r="K423" s="4" t="str">
         <f t="shared" si="26"/>
         <v>07149274730</v>
       </c>
@@ -33780,11 +33785,11 @@
       <c r="I424" s="3">
         <v>2</v>
       </c>
-      <c r="J424" s="3" t="str">
+      <c r="J424" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K424" s="3" t="str">
+      <c r="K424" s="4" t="str">
         <f t="shared" si="26"/>
         <v>79539718791</v>
       </c>
@@ -33849,11 +33854,11 @@
       <c r="I425" s="3">
         <v>2</v>
       </c>
-      <c r="J425" s="3" t="str">
+      <c r="J425" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K425" s="3" t="str">
+      <c r="K425" s="4" t="str">
         <f t="shared" si="26"/>
         <v>03665806712</v>
       </c>
@@ -33918,11 +33923,11 @@
       <c r="I426" s="3">
         <v>2</v>
       </c>
-      <c r="J426" s="3" t="str">
+      <c r="J426" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K426" s="3" t="str">
+      <c r="K426" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12299794760</v>
       </c>
@@ -33987,11 +33992,11 @@
       <c r="I427" s="3">
         <v>2</v>
       </c>
-      <c r="J427" s="3" t="str">
+      <c r="J427" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K427" s="3" t="str">
+      <c r="K427" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00364406712</v>
       </c>
@@ -34056,11 +34061,11 @@
       <c r="I428" s="3">
         <v>2</v>
       </c>
-      <c r="J428" s="3" t="str">
+      <c r="J428" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K428" s="3" t="str">
+      <c r="K428" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08513772704</v>
       </c>
@@ -34125,11 +34130,11 @@
       <c r="I429" s="3">
         <v>2</v>
       </c>
-      <c r="J429" s="3" t="str">
+      <c r="J429" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K429" s="3" t="str">
+      <c r="K429" s="4" t="str">
         <f t="shared" si="26"/>
         <v>08513772704</v>
       </c>
@@ -34194,11 +34199,11 @@
       <c r="I430" s="3">
         <v>2</v>
       </c>
-      <c r="J430" s="3" t="str">
+      <c r="J430" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K430" s="3" t="str">
+      <c r="K430" s="4" t="str">
         <f t="shared" si="26"/>
         <v>16030802798</v>
       </c>
@@ -34263,11 +34268,11 @@
       <c r="I431" s="3">
         <v>2</v>
       </c>
-      <c r="J431" s="3" t="str">
+      <c r="J431" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K431" s="3" t="str">
+      <c r="K431" s="4" t="str">
         <f t="shared" si="26"/>
         <v>16030802798</v>
       </c>
@@ -34332,11 +34337,11 @@
       <c r="I432" s="3">
         <v>2</v>
       </c>
-      <c r="J432" s="3" t="str">
+      <c r="J432" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K432" s="3" t="str">
+      <c r="K432" s="4" t="str">
         <f t="shared" si="26"/>
         <v>09374606720</v>
       </c>
@@ -34401,11 +34406,11 @@
       <c r="I433" s="3">
         <v>2</v>
       </c>
-      <c r="J433" s="3" t="str">
+      <c r="J433" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K433" s="3" t="str">
+      <c r="K433" s="4" t="str">
         <f t="shared" si="26"/>
         <v>39878702812</v>
       </c>
@@ -34470,11 +34475,11 @@
       <c r="I434" s="3">
         <v>2</v>
       </c>
-      <c r="J434" s="3" t="str">
+      <c r="J434" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K434" s="3" t="str">
+      <c r="K434" s="4" t="str">
         <f t="shared" si="26"/>
         <v>39878702812</v>
       </c>
@@ -34539,11 +34544,11 @@
       <c r="I435" s="3">
         <v>2</v>
       </c>
-      <c r="J435" s="3" t="str">
+      <c r="J435" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K435" s="3" t="str">
+      <c r="K435" s="4" t="str">
         <f t="shared" si="26"/>
         <v>04701149756</v>
       </c>
@@ -34608,11 +34613,11 @@
       <c r="I436" s="3">
         <v>2</v>
       </c>
-      <c r="J436" s="3" t="str">
+      <c r="J436" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K436" s="3" t="str">
+      <c r="K436" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05194533799</v>
       </c>
@@ -34677,11 +34682,11 @@
       <c r="I437" s="3">
         <v>2</v>
       </c>
-      <c r="J437" s="3" t="str">
+      <c r="J437" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K437" s="3" t="str">
+      <c r="K437" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05194533799</v>
       </c>
@@ -34746,11 +34751,11 @@
       <c r="I438" s="3">
         <v>2</v>
       </c>
-      <c r="J438" s="3" t="str">
+      <c r="J438" s="4" t="str">
         <f t="shared" si="24"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K438" s="3" t="str">
+      <c r="K438" s="4" t="str">
         <f t="shared" si="26"/>
         <v>13814480708</v>
       </c>
@@ -34815,11 +34820,11 @@
       <c r="I439" s="3">
         <v>3</v>
       </c>
-      <c r="J439" s="3" t="str">
+      <c r="J439" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K439" s="3" t="str">
+      <c r="K439" s="4" t="str">
         <f t="shared" si="26"/>
         <v>03612773771</v>
       </c>
@@ -34884,11 +34889,11 @@
       <c r="I440" s="3">
         <v>3</v>
       </c>
-      <c r="J440" s="3" t="str">
+      <c r="J440" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K440" s="3" t="str">
+      <c r="K440" s="4" t="str">
         <f t="shared" si="26"/>
         <v>03612773771</v>
       </c>
@@ -34953,11 +34958,11 @@
       <c r="I441" s="3">
         <v>3</v>
       </c>
-      <c r="J441" s="3" t="str">
+      <c r="J441" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K441" s="3" t="str">
+      <c r="K441" s="4" t="str">
         <f t="shared" si="26"/>
         <v>03747992706</v>
       </c>
@@ -35022,11 +35027,11 @@
       <c r="I442" s="3">
         <v>3</v>
       </c>
-      <c r="J442" s="3" t="str">
+      <c r="J442" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K442" s="3" t="str">
+      <c r="K442" s="4" t="str">
         <f t="shared" si="26"/>
         <v>02974801706</v>
       </c>
@@ -35091,11 +35096,11 @@
       <c r="I443" s="3">
         <v>3</v>
       </c>
-      <c r="J443" s="3" t="str">
+      <c r="J443" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K443" s="3" t="str">
+      <c r="K443" s="4" t="str">
         <f t="shared" si="26"/>
         <v>02603392700</v>
       </c>
@@ -35160,11 +35165,11 @@
       <c r="I444" s="3">
         <v>3</v>
       </c>
-      <c r="J444" s="3" t="str">
+      <c r="J444" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K444" s="3" t="str">
+      <c r="K444" s="4" t="str">
         <f t="shared" si="26"/>
         <v>02603392700</v>
       </c>
@@ -35229,11 +35234,11 @@
       <c r="I445" s="3">
         <v>3</v>
       </c>
-      <c r="J445" s="3" t="str">
+      <c r="J445" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K445" s="3" t="str">
+      <c r="K445" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12207468780</v>
       </c>
@@ -35298,11 +35303,11 @@
       <c r="I446" s="3">
         <v>3</v>
       </c>
-      <c r="J446" s="3" t="str">
+      <c r="J446" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K446" s="3" t="str">
+      <c r="K446" s="4" t="str">
         <f t="shared" si="26"/>
         <v>12207468780</v>
       </c>
@@ -35367,11 +35372,11 @@
       <c r="I447" s="3">
         <v>3</v>
       </c>
-      <c r="J447" s="3" t="str">
+      <c r="J447" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K447" s="3" t="str">
+      <c r="K447" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05670472705</v>
       </c>
@@ -35436,11 +35441,11 @@
       <c r="I448" s="3">
         <v>3</v>
       </c>
-      <c r="J448" s="3" t="str">
+      <c r="J448" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K448" s="3" t="str">
+      <c r="K448" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05670472705</v>
       </c>
@@ -35505,11 +35510,11 @@
       <c r="I449" s="3">
         <v>3</v>
       </c>
-      <c r="J449" s="3" t="str">
+      <c r="J449" s="4" t="str">
         <f t="shared" si="24"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K449" s="3" t="str">
+      <c r="K449" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05258471705</v>
       </c>
@@ -35574,11 +35579,11 @@
       <c r="I450" s="3">
         <v>3</v>
       </c>
-      <c r="J450" s="3" t="str">
+      <c r="J450" s="4" t="str">
         <f t="shared" ref="J450:J513" si="28">IF(I450=1,"20:00 às 20:40",IF(I450=2,"21:00 às 21:40",IF(I450=3,"22:00 às 22:40",I450)))</f>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K450" s="3" t="str">
+      <c r="K450" s="4" t="str">
         <f t="shared" si="26"/>
         <v>05258471705</v>
       </c>
@@ -35643,11 +35648,11 @@
       <c r="I451" s="3">
         <v>3</v>
       </c>
-      <c r="J451" s="3" t="str">
+      <c r="J451" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K451" s="3" t="str">
+      <c r="K451" s="4" t="str">
         <f t="shared" ref="K451:K514" si="30">TEXT(A451,"00000000000")</f>
         <v>00100477780</v>
       </c>
@@ -35712,11 +35717,11 @@
       <c r="I452" s="3">
         <v>3</v>
       </c>
-      <c r="J452" s="3" t="str">
+      <c r="J452" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K452" s="3" t="str">
+      <c r="K452" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07826719771</v>
       </c>
@@ -35785,11 +35790,11 @@
       <c r="I453" s="3">
         <v>3</v>
       </c>
-      <c r="J453" s="3" t="str">
+      <c r="J453" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K453" s="3" t="str">
+      <c r="K453" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11784987786</v>
       </c>
@@ -35854,11 +35859,11 @@
       <c r="I454" s="3">
         <v>3</v>
       </c>
-      <c r="J454" s="3" t="str">
+      <c r="J454" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K454" s="3" t="str">
+      <c r="K454" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07475879739</v>
       </c>
@@ -35923,11 +35928,11 @@
       <c r="I455" s="3">
         <v>3</v>
       </c>
-      <c r="J455" s="3" t="str">
+      <c r="J455" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K455" s="3" t="str">
+      <c r="K455" s="4" t="str">
         <f t="shared" si="30"/>
         <v>10502293713</v>
       </c>
@@ -35992,11 +35997,11 @@
       <c r="I456" s="3">
         <v>3</v>
       </c>
-      <c r="J456" s="3" t="str">
+      <c r="J456" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K456" s="3" t="str">
+      <c r="K456" s="4" t="str">
         <f t="shared" si="30"/>
         <v>12987020708</v>
       </c>
@@ -36061,11 +36066,11 @@
       <c r="I457" s="3">
         <v>3</v>
       </c>
-      <c r="J457" s="3" t="str">
+      <c r="J457" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K457" s="3" t="str">
+      <c r="K457" s="4" t="str">
         <f t="shared" si="30"/>
         <v>12987020708</v>
       </c>
@@ -36130,11 +36135,11 @@
       <c r="I458" s="3">
         <v>3</v>
       </c>
-      <c r="J458" s="3" t="str">
+      <c r="J458" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K458" s="3" t="str">
+      <c r="K458" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08931303700</v>
       </c>
@@ -36199,11 +36204,11 @@
       <c r="I459" s="3">
         <v>3</v>
       </c>
-      <c r="J459" s="3" t="str">
+      <c r="J459" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K459" s="3" t="str">
+      <c r="K459" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11840018712</v>
       </c>
@@ -36268,11 +36273,11 @@
       <c r="I460" s="3">
         <v>3</v>
       </c>
-      <c r="J460" s="3" t="str">
+      <c r="J460" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K460" s="3" t="str">
+      <c r="K460" s="4" t="str">
         <f t="shared" si="30"/>
         <v>84674610710</v>
       </c>
@@ -36337,11 +36342,11 @@
       <c r="I461" s="3">
         <v>3</v>
       </c>
-      <c r="J461" s="3" t="str">
+      <c r="J461" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K461" s="3" t="str">
+      <c r="K461" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11123487782</v>
       </c>
@@ -36406,11 +36411,11 @@
       <c r="I462" s="3">
         <v>3</v>
       </c>
-      <c r="J462" s="3" t="str">
+      <c r="J462" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K462" s="3" t="str">
+      <c r="K462" s="4" t="str">
         <f t="shared" si="30"/>
         <v>12889314766</v>
       </c>
@@ -36475,11 +36480,11 @@
       <c r="I463" s="3">
         <v>3</v>
       </c>
-      <c r="J463" s="3" t="str">
+      <c r="J463" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K463" s="3" t="str">
+      <c r="K463" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07536195710</v>
       </c>
@@ -36544,11 +36549,11 @@
       <c r="I464" s="3">
         <v>3</v>
       </c>
-      <c r="J464" s="3" t="str">
+      <c r="J464" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K464" s="3" t="str">
+      <c r="K464" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07536195710</v>
       </c>
@@ -36613,11 +36618,11 @@
       <c r="I465" s="3">
         <v>3</v>
       </c>
-      <c r="J465" s="3" t="str">
+      <c r="J465" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K465" s="3" t="str">
+      <c r="K465" s="4" t="str">
         <f t="shared" si="30"/>
         <v>09711971720</v>
       </c>
@@ -36682,11 +36687,11 @@
       <c r="I466" s="3">
         <v>3</v>
       </c>
-      <c r="J466" s="3" t="str">
+      <c r="J466" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K466" s="3" t="str">
+      <c r="K466" s="4" t="str">
         <f t="shared" si="30"/>
         <v>09711971720</v>
       </c>
@@ -36751,11 +36756,11 @@
       <c r="I467" s="3">
         <v>3</v>
       </c>
-      <c r="J467" s="3" t="str">
+      <c r="J467" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K467" s="3" t="str">
+      <c r="K467" s="4" t="str">
         <f t="shared" si="30"/>
         <v>89438744720</v>
       </c>
@@ -36820,11 +36825,11 @@
       <c r="I468" s="3">
         <v>3</v>
       </c>
-      <c r="J468" s="3" t="str">
+      <c r="J468" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K468" s="3" t="str">
+      <c r="K468" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08385581782</v>
       </c>
@@ -36889,11 +36894,11 @@
       <c r="I469" s="3">
         <v>3</v>
       </c>
-      <c r="J469" s="3" t="str">
+      <c r="J469" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K469" s="3" t="str">
+      <c r="K469" s="4" t="str">
         <f t="shared" si="30"/>
         <v>17373628729</v>
       </c>
@@ -36958,11 +36963,11 @@
       <c r="I470" s="3">
         <v>3</v>
       </c>
-      <c r="J470" s="3" t="str">
+      <c r="J470" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K470" s="3" t="str">
+      <c r="K470" s="4" t="str">
         <f t="shared" si="30"/>
         <v>17373628729</v>
       </c>
@@ -37027,11 +37032,11 @@
       <c r="I471" s="3">
         <v>3</v>
       </c>
-      <c r="J471" s="3" t="str">
+      <c r="J471" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K471" s="3" t="str">
+      <c r="K471" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11068381736</v>
       </c>
@@ -37096,11 +37101,11 @@
       <c r="I472" s="3">
         <v>3</v>
       </c>
-      <c r="J472" s="3" t="str">
+      <c r="J472" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K472" s="3" t="str">
+      <c r="K472" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11068381736</v>
       </c>
@@ -37165,11 +37170,11 @@
       <c r="I473" s="3">
         <v>3</v>
       </c>
-      <c r="J473" s="3" t="str">
+      <c r="J473" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K473" s="3" t="str">
+      <c r="K473" s="4" t="str">
         <f t="shared" si="30"/>
         <v>01241688761</v>
       </c>
@@ -37234,11 +37239,11 @@
       <c r="I474" s="3">
         <v>3</v>
       </c>
-      <c r="J474" s="3" t="str">
+      <c r="J474" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K474" s="3" t="str">
+      <c r="K474" s="4" t="str">
         <f t="shared" si="30"/>
         <v>01241688761</v>
       </c>
@@ -37303,11 +37308,11 @@
       <c r="I475" s="3">
         <v>3</v>
       </c>
-      <c r="J475" s="3" t="str">
+      <c r="J475" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K475" s="3" t="str">
+      <c r="K475" s="4" t="str">
         <f t="shared" si="30"/>
         <v>94139067772</v>
       </c>
@@ -37372,11 +37377,11 @@
       <c r="I476" s="3">
         <v>3</v>
       </c>
-      <c r="J476" s="3" t="str">
+      <c r="J476" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K476" s="3" t="str">
+      <c r="K476" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08239558771</v>
       </c>
@@ -37441,11 +37446,11 @@
       <c r="I477" s="3">
         <v>3</v>
       </c>
-      <c r="J477" s="3" t="str">
+      <c r="J477" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K477" s="3" t="str">
+      <c r="K477" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08239558771</v>
       </c>
@@ -37510,11 +37515,11 @@
       <c r="I478" s="3">
         <v>3</v>
       </c>
-      <c r="J478" s="3" t="str">
+      <c r="J478" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K478" s="3" t="str">
+      <c r="K478" s="4" t="str">
         <f t="shared" si="30"/>
         <v>88887359768</v>
       </c>
@@ -37579,11 +37584,11 @@
       <c r="I479" s="3">
         <v>3</v>
       </c>
-      <c r="J479" s="3" t="str">
+      <c r="J479" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K479" s="3" t="str">
+      <c r="K479" s="4" t="str">
         <f t="shared" si="30"/>
         <v>01863089730</v>
       </c>
@@ -37648,11 +37653,11 @@
       <c r="I480" s="3">
         <v>3</v>
       </c>
-      <c r="J480" s="3" t="str">
+      <c r="J480" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K480" s="3" t="str">
+      <c r="K480" s="4" t="str">
         <f t="shared" si="30"/>
         <v>79539718791</v>
       </c>
@@ -37717,11 +37722,11 @@
       <c r="I481" s="3">
         <v>3</v>
       </c>
-      <c r="J481" s="3" t="str">
+      <c r="J481" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K481" s="3" t="str">
+      <c r="K481" s="4" t="str">
         <f t="shared" si="30"/>
         <v>03665806712</v>
       </c>
@@ -37786,11 +37791,11 @@
       <c r="I482" s="3">
         <v>3</v>
       </c>
-      <c r="J482" s="3" t="str">
+      <c r="J482" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K482" s="3" t="str">
+      <c r="K482" s="4" t="str">
         <f t="shared" si="30"/>
         <v>03665806712</v>
       </c>
@@ -37855,11 +37860,11 @@
       <c r="I483" s="3">
         <v>3</v>
       </c>
-      <c r="J483" s="3" t="str">
+      <c r="J483" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K483" s="3" t="str">
+      <c r="K483" s="4" t="str">
         <f t="shared" si="30"/>
         <v>05682394747</v>
       </c>
@@ -37924,11 +37929,11 @@
       <c r="I484" s="3">
         <v>3</v>
       </c>
-      <c r="J484" s="3" t="str">
+      <c r="J484" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K484" s="3" t="str">
+      <c r="K484" s="4" t="str">
         <f t="shared" si="30"/>
         <v>12411249730</v>
       </c>
@@ -37993,11 +37998,11 @@
       <c r="I485" s="3">
         <v>3</v>
       </c>
-      <c r="J485" s="3" t="str">
+      <c r="J485" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K485" s="3" t="str">
+      <c r="K485" s="4" t="str">
         <f t="shared" si="30"/>
         <v>12411249730</v>
       </c>
@@ -38062,11 +38067,11 @@
       <c r="I486" s="3">
         <v>3</v>
       </c>
-      <c r="J486" s="3" t="str">
+      <c r="J486" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K486" s="3" t="str">
+      <c r="K486" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08513772704</v>
       </c>
@@ -38131,11 +38136,11 @@
       <c r="I487" s="3">
         <v>3</v>
       </c>
-      <c r="J487" s="3" t="str">
+      <c r="J487" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K487" s="3" t="str">
+      <c r="K487" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08513772704</v>
       </c>
@@ -38200,11 +38205,11 @@
       <c r="I488" s="3">
         <v>3</v>
       </c>
-      <c r="J488" s="3" t="str">
+      <c r="J488" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K488" s="3" t="str">
+      <c r="K488" s="4" t="str">
         <f t="shared" si="30"/>
         <v>16030802798</v>
       </c>
@@ -38269,11 +38274,11 @@
       <c r="I489" s="3">
         <v>3</v>
       </c>
-      <c r="J489" s="3" t="str">
+      <c r="J489" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K489" s="3" t="str">
+      <c r="K489" s="4" t="str">
         <f t="shared" si="30"/>
         <v>09374606720</v>
       </c>
@@ -38338,11 +38343,11 @@
       <c r="I490" s="3">
         <v>3</v>
       </c>
-      <c r="J490" s="3" t="str">
+      <c r="J490" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K490" s="3" t="str">
+      <c r="K490" s="4" t="str">
         <f t="shared" si="30"/>
         <v>13087798797</v>
       </c>
@@ -38407,11 +38412,11 @@
       <c r="I491" s="3">
         <v>3</v>
       </c>
-      <c r="J491" s="3" t="str">
+      <c r="J491" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K491" s="3" t="str">
+      <c r="K491" s="4" t="str">
         <f t="shared" si="30"/>
         <v>14825047742</v>
       </c>
@@ -38476,11 +38481,11 @@
       <c r="I492" s="3">
         <v>3</v>
       </c>
-      <c r="J492" s="3" t="str">
+      <c r="J492" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K492" s="3" t="str">
+      <c r="K492" s="4" t="str">
         <f t="shared" si="30"/>
         <v>39878702812</v>
       </c>
@@ -38545,11 +38550,11 @@
       <c r="I493" s="3">
         <v>3</v>
       </c>
-      <c r="J493" s="3" t="str">
+      <c r="J493" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K493" s="3" t="str">
+      <c r="K493" s="4" t="str">
         <f t="shared" si="30"/>
         <v>04701149756</v>
       </c>
@@ -38614,11 +38619,11 @@
       <c r="I494" s="3">
         <v>3</v>
       </c>
-      <c r="J494" s="3" t="str">
+      <c r="J494" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K494" s="3" t="str">
+      <c r="K494" s="4" t="str">
         <f t="shared" si="30"/>
         <v>05194533799</v>
       </c>
@@ -38683,11 +38688,11 @@
       <c r="I495" s="3">
         <v>3</v>
       </c>
-      <c r="J495" s="3" t="str">
+      <c r="J495" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K495" s="3" t="str">
+      <c r="K495" s="4" t="str">
         <f t="shared" si="30"/>
         <v>05194533799</v>
       </c>
@@ -38752,11 +38757,11 @@
       <c r="I496" s="3">
         <v>3</v>
       </c>
-      <c r="J496" s="3" t="str">
+      <c r="J496" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K496" s="3" t="str">
+      <c r="K496" s="4" t="str">
         <f t="shared" si="30"/>
         <v>13814480708</v>
       </c>
@@ -38821,11 +38826,11 @@
       <c r="I497" s="3">
         <v>3</v>
       </c>
-      <c r="J497" s="3" t="str">
+      <c r="J497" s="4" t="str">
         <f t="shared" si="28"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K497" s="3" t="str">
+      <c r="K497" s="4" t="str">
         <f t="shared" si="30"/>
         <v>09943965703</v>
       </c>
@@ -38890,11 +38895,11 @@
       <c r="I498" s="3">
         <v>1</v>
       </c>
-      <c r="J498" s="3" t="str">
+      <c r="J498" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K498" s="3" t="str">
+      <c r="K498" s="4" t="str">
         <f t="shared" si="30"/>
         <v>03612773771</v>
       </c>
@@ -38959,11 +38964,11 @@
       <c r="I499" s="3">
         <v>1</v>
       </c>
-      <c r="J499" s="3" t="str">
+      <c r="J499" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K499" s="3" t="str">
+      <c r="K499" s="4" t="str">
         <f t="shared" si="30"/>
         <v>05372850752</v>
       </c>
@@ -39028,11 +39033,11 @@
       <c r="I500" s="3">
         <v>1</v>
       </c>
-      <c r="J500" s="3" t="str">
+      <c r="J500" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K500" s="3" t="str">
+      <c r="K500" s="4" t="str">
         <f t="shared" si="30"/>
         <v>29804168863</v>
       </c>
@@ -39097,11 +39102,11 @@
       <c r="I501" s="3">
         <v>1</v>
       </c>
-      <c r="J501" s="3" t="str">
+      <c r="J501" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K501" s="3" t="str">
+      <c r="K501" s="4" t="str">
         <f t="shared" si="30"/>
         <v>29804168863</v>
       </c>
@@ -39166,11 +39171,11 @@
       <c r="I502" s="3">
         <v>1</v>
       </c>
-      <c r="J502" s="3" t="str">
+      <c r="J502" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K502" s="3" t="str">
+      <c r="K502" s="4" t="str">
         <f t="shared" si="30"/>
         <v>03747992706</v>
       </c>
@@ -39235,11 +39240,11 @@
       <c r="I503" s="3">
         <v>1</v>
       </c>
-      <c r="J503" s="3" t="str">
+      <c r="J503" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K503" s="3" t="str">
+      <c r="K503" s="4" t="str">
         <f t="shared" si="30"/>
         <v>02603392700</v>
       </c>
@@ -39304,11 +39309,11 @@
       <c r="I504" s="3">
         <v>1</v>
       </c>
-      <c r="J504" s="3" t="str">
+      <c r="J504" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K504" s="3" t="str">
+      <c r="K504" s="4" t="str">
         <f t="shared" si="30"/>
         <v>74670476734</v>
       </c>
@@ -39373,11 +39378,11 @@
       <c r="I505" s="3">
         <v>1</v>
       </c>
-      <c r="J505" s="3" t="str">
+      <c r="J505" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K505" s="3" t="str">
+      <c r="K505" s="4" t="str">
         <f t="shared" si="30"/>
         <v>74670476734</v>
       </c>
@@ -39442,11 +39447,11 @@
       <c r="I506" s="3">
         <v>1</v>
       </c>
-      <c r="J506" s="3" t="str">
+      <c r="J506" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K506" s="3" t="str">
+      <c r="K506" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00100477780</v>
       </c>
@@ -39511,11 +39516,11 @@
       <c r="I507" s="3">
         <v>1</v>
       </c>
-      <c r="J507" s="3" t="str">
+      <c r="J507" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K507" s="3" t="str">
+      <c r="K507" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00100477780</v>
       </c>
@@ -39580,11 +39585,11 @@
       <c r="I508" s="3">
         <v>1</v>
       </c>
-      <c r="J508" s="3" t="str">
+      <c r="J508" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K508" s="3" t="str">
+      <c r="K508" s="4" t="str">
         <f t="shared" si="30"/>
         <v>84674610710</v>
       </c>
@@ -39649,11 +39654,11 @@
       <c r="I509" s="3">
         <v>1</v>
       </c>
-      <c r="J509" s="3" t="str">
+      <c r="J509" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K509" s="3" t="str">
+      <c r="K509" s="4" t="str">
         <f t="shared" si="30"/>
         <v>84674610710</v>
       </c>
@@ -39718,11 +39723,11 @@
       <c r="I510" s="3">
         <v>1</v>
       </c>
-      <c r="J510" s="3" t="str">
+      <c r="J510" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K510" s="3" t="str">
+      <c r="K510" s="4" t="str">
         <f t="shared" si="30"/>
         <v>08705475775</v>
       </c>
@@ -39787,11 +39792,11 @@
       <c r="I511" s="3">
         <v>1</v>
       </c>
-      <c r="J511" s="3" t="str">
+      <c r="J511" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K511" s="3" t="str">
+      <c r="K511" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07536195710</v>
       </c>
@@ -39856,11 +39861,11 @@
       <c r="I512" s="3">
         <v>1</v>
       </c>
-      <c r="J512" s="3" t="str">
+      <c r="J512" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K512" s="3" t="str">
+      <c r="K512" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07536195710</v>
       </c>
@@ -39925,11 +39930,11 @@
       <c r="I513" s="3">
         <v>1</v>
       </c>
-      <c r="J513" s="3" t="str">
+      <c r="J513" s="4" t="str">
         <f t="shared" si="28"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K513" s="3" t="str">
+      <c r="K513" s="4" t="str">
         <f t="shared" si="30"/>
         <v>07896229714</v>
       </c>
@@ -39994,11 +39999,11 @@
       <c r="I514" s="3">
         <v>1</v>
       </c>
-      <c r="J514" s="3" t="str">
+      <c r="J514" s="4" t="str">
         <f t="shared" ref="J514:J577" si="32">IF(I514=1,"20:00 às 20:40",IF(I514=2,"21:00 às 21:40",IF(I514=3,"22:00 às 22:40",I514)))</f>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K514" s="3" t="str">
+      <c r="K514" s="4" t="str">
         <f t="shared" si="30"/>
         <v>11068381736</v>
       </c>
@@ -40063,11 +40068,11 @@
       <c r="I515" s="3">
         <v>1</v>
       </c>
-      <c r="J515" s="3" t="str">
+      <c r="J515" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K515" s="3" t="str">
+      <c r="K515" s="4" t="str">
         <f t="shared" ref="K515:K578" si="34">TEXT(A515,"00000000000")</f>
         <v>08627124752</v>
       </c>
@@ -40132,11 +40137,11 @@
       <c r="I516" s="3">
         <v>1</v>
       </c>
-      <c r="J516" s="3" t="str">
+      <c r="J516" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K516" s="3" t="str">
+      <c r="K516" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08627124752</v>
       </c>
@@ -40205,11 +40210,11 @@
       <c r="I517" s="3">
         <v>1</v>
       </c>
-      <c r="J517" s="3" t="str">
+      <c r="J517" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K517" s="3" t="str">
+      <c r="K517" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08239558771</v>
       </c>
@@ -40274,11 +40279,11 @@
       <c r="I518" s="3">
         <v>1</v>
       </c>
-      <c r="J518" s="3" t="str">
+      <c r="J518" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K518" s="3" t="str">
+      <c r="K518" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -40343,11 +40348,11 @@
       <c r="I519" s="3">
         <v>1</v>
       </c>
-      <c r="J519" s="3" t="str">
+      <c r="J519" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K519" s="3" t="str">
+      <c r="K519" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -40412,11 +40417,11 @@
       <c r="I520" s="3">
         <v>1</v>
       </c>
-      <c r="J520" s="3" t="str">
+      <c r="J520" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K520" s="3" t="str">
+      <c r="K520" s="4" t="str">
         <f t="shared" si="34"/>
         <v>01641334703</v>
       </c>
@@ -40481,11 +40486,11 @@
       <c r="I521" s="3">
         <v>1</v>
       </c>
-      <c r="J521" s="3" t="str">
+      <c r="J521" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K521" s="3" t="str">
+      <c r="K521" s="4" t="str">
         <f t="shared" si="34"/>
         <v>05682394747</v>
       </c>
@@ -40550,11 +40555,11 @@
       <c r="I522" s="3">
         <v>1</v>
       </c>
-      <c r="J522" s="3" t="str">
+      <c r="J522" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K522" s="3" t="str">
+      <c r="K522" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04303703770</v>
       </c>
@@ -40619,11 +40624,11 @@
       <c r="I523" s="3">
         <v>1</v>
       </c>
-      <c r="J523" s="3" t="str">
+      <c r="J523" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K523" s="3" t="str">
+      <c r="K523" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08422775603</v>
       </c>
@@ -40688,11 +40693,11 @@
       <c r="I524" s="3">
         <v>1</v>
       </c>
-      <c r="J524" s="3" t="str">
+      <c r="J524" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K524" s="3" t="str">
+      <c r="K524" s="4" t="str">
         <f t="shared" si="34"/>
         <v>16030802798</v>
       </c>
@@ -40757,11 +40762,11 @@
       <c r="I525" s="3">
         <v>2</v>
       </c>
-      <c r="J525" s="3" t="str">
+      <c r="J525" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K525" s="3" t="str">
+      <c r="K525" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04274535770</v>
       </c>
@@ -40826,11 +40831,11 @@
       <c r="I526" s="3">
         <v>2</v>
       </c>
-      <c r="J526" s="3" t="str">
+      <c r="J526" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K526" s="3" t="str">
+      <c r="K526" s="4" t="str">
         <f t="shared" si="34"/>
         <v>29804168863</v>
       </c>
@@ -40895,11 +40900,11 @@
       <c r="I527" s="3">
         <v>2</v>
       </c>
-      <c r="J527" s="3" t="str">
+      <c r="J527" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K527" s="3" t="str">
+      <c r="K527" s="4" t="str">
         <f t="shared" si="34"/>
         <v>74670476734</v>
       </c>
@@ -40964,11 +40969,11 @@
       <c r="I528" s="3">
         <v>2</v>
       </c>
-      <c r="J528" s="3" t="str">
+      <c r="J528" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K528" s="3" t="str">
+      <c r="K528" s="4" t="str">
         <f t="shared" si="34"/>
         <v>74670476734</v>
       </c>
@@ -41033,11 +41038,11 @@
       <c r="I529" s="3">
         <v>2</v>
       </c>
-      <c r="J529" s="3" t="str">
+      <c r="J529" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K529" s="3" t="str">
+      <c r="K529" s="4" t="str">
         <f t="shared" si="34"/>
         <v>75887878720</v>
       </c>
@@ -41102,11 +41107,11 @@
       <c r="I530" s="3">
         <v>2</v>
       </c>
-      <c r="J530" s="3" t="str">
+      <c r="J530" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K530" s="3" t="str">
+      <c r="K530" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00100477780</v>
       </c>
@@ -41171,11 +41176,11 @@
       <c r="I531" s="3">
         <v>2</v>
       </c>
-      <c r="J531" s="3" t="str">
+      <c r="J531" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K531" s="3" t="str">
+      <c r="K531" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00100477780</v>
       </c>
@@ -41240,11 +41245,11 @@
       <c r="I532" s="3">
         <v>2</v>
       </c>
-      <c r="J532" s="3" t="str">
+      <c r="J532" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K532" s="3" t="str">
+      <c r="K532" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03361027713</v>
       </c>
@@ -41309,11 +41314,11 @@
       <c r="I533" s="3">
         <v>2</v>
       </c>
-      <c r="J533" s="3" t="str">
+      <c r="J533" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K533" s="3" t="str">
+      <c r="K533" s="4" t="str">
         <f t="shared" si="34"/>
         <v>11784987786</v>
       </c>
@@ -41378,11 +41383,11 @@
       <c r="I534" s="3">
         <v>2</v>
       </c>
-      <c r="J534" s="3" t="str">
+      <c r="J534" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K534" s="3" t="str">
+      <c r="K534" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08705475775</v>
       </c>
@@ -41447,11 +41452,11 @@
       <c r="I535" s="3">
         <v>2</v>
       </c>
-      <c r="J535" s="3" t="str">
+      <c r="J535" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K535" s="3" t="str">
+      <c r="K535" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08705475775</v>
       </c>
@@ -41516,11 +41521,11 @@
       <c r="I536" s="3">
         <v>2</v>
       </c>
-      <c r="J536" s="3" t="str">
+      <c r="J536" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K536" s="3" t="str">
+      <c r="K536" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07536195710</v>
       </c>
@@ -41585,11 +41590,11 @@
       <c r="I537" s="3">
         <v>2</v>
       </c>
-      <c r="J537" s="3" t="str">
+      <c r="J537" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K537" s="3" t="str">
+      <c r="K537" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07896229714</v>
       </c>
@@ -41654,11 +41659,11 @@
       <c r="I538" s="3">
         <v>2</v>
       </c>
-      <c r="J538" s="3" t="str">
+      <c r="J538" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K538" s="3" t="str">
+      <c r="K538" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07896229714</v>
       </c>
@@ -41723,11 +41728,11 @@
       <c r="I539" s="3">
         <v>2</v>
       </c>
-      <c r="J539" s="3" t="str">
+      <c r="J539" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K539" s="3" t="str">
+      <c r="K539" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08627124752</v>
       </c>
@@ -41792,11 +41797,11 @@
       <c r="I540" s="3">
         <v>2</v>
       </c>
-      <c r="J540" s="3" t="str">
+      <c r="J540" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K540" s="3" t="str">
+      <c r="K540" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04285779706</v>
       </c>
@@ -41861,11 +41866,11 @@
       <c r="I541" s="3">
         <v>2</v>
       </c>
-      <c r="J541" s="3" t="str">
+      <c r="J541" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K541" s="3" t="str">
+      <c r="K541" s="4" t="str">
         <f t="shared" si="34"/>
         <v>22115927168</v>
       </c>
@@ -41930,11 +41935,11 @@
       <c r="I542" s="3">
         <v>2</v>
       </c>
-      <c r="J542" s="3" t="str">
+      <c r="J542" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K542" s="3" t="str">
+      <c r="K542" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08239558771</v>
       </c>
@@ -41999,11 +42004,11 @@
       <c r="I543" s="3">
         <v>2</v>
       </c>
-      <c r="J543" s="3" t="str">
+      <c r="J543" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K543" s="3" t="str">
+      <c r="K543" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03665806712</v>
       </c>
@@ -42068,11 +42073,11 @@
       <c r="I544" s="3">
         <v>2</v>
       </c>
-      <c r="J544" s="3" t="str">
+      <c r="J544" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K544" s="3" t="str">
+      <c r="K544" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -42137,11 +42142,11 @@
       <c r="I545" s="3">
         <v>2</v>
       </c>
-      <c r="J545" s="3" t="str">
+      <c r="J545" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K545" s="3" t="str">
+      <c r="K545" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -42206,11 +42211,11 @@
       <c r="I546" s="3">
         <v>2</v>
       </c>
-      <c r="J546" s="3" t="str">
+      <c r="J546" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K546" s="3" t="str">
+      <c r="K546" s="4" t="str">
         <f t="shared" si="34"/>
         <v>01641334703</v>
       </c>
@@ -42275,11 +42280,11 @@
       <c r="I547" s="3">
         <v>2</v>
       </c>
-      <c r="J547" s="3" t="str">
+      <c r="J547" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K547" s="3" t="str">
+      <c r="K547" s="4" t="str">
         <f t="shared" si="34"/>
         <v>05682394747</v>
       </c>
@@ -42344,11 +42349,11 @@
       <c r="I548" s="3">
         <v>2</v>
       </c>
-      <c r="J548" s="3" t="str">
+      <c r="J548" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K548" s="3" t="str">
+      <c r="K548" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04303703770</v>
       </c>
@@ -42413,11 +42418,11 @@
       <c r="I549" s="3">
         <v>2</v>
       </c>
-      <c r="J549" s="3" t="str">
+      <c r="J549" s="4" t="str">
         <f t="shared" si="32"/>
         <v>21:00 às 21:40</v>
       </c>
-      <c r="K549" s="3" t="str">
+      <c r="K549" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04303703770</v>
       </c>
@@ -42482,11 +42487,11 @@
       <c r="I550" s="3">
         <v>3</v>
       </c>
-      <c r="J550" s="3" t="str">
+      <c r="J550" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K550" s="3" t="str">
+      <c r="K550" s="4" t="str">
         <f t="shared" si="34"/>
         <v>05372850752</v>
       </c>
@@ -42551,11 +42556,11 @@
       <c r="I551" s="3">
         <v>3</v>
       </c>
-      <c r="J551" s="3" t="str">
+      <c r="J551" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K551" s="3" t="str">
+      <c r="K551" s="4" t="str">
         <f t="shared" si="34"/>
         <v>29804168863</v>
       </c>
@@ -42620,11 +42625,11 @@
       <c r="I552" s="3">
         <v>3</v>
       </c>
-      <c r="J552" s="3" t="str">
+      <c r="J552" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K552" s="3" t="str">
+      <c r="K552" s="4" t="str">
         <f t="shared" si="34"/>
         <v>29804168863</v>
       </c>
@@ -42689,11 +42694,11 @@
       <c r="I553" s="3">
         <v>3</v>
       </c>
-      <c r="J553" s="3" t="str">
+      <c r="J553" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K553" s="3" t="str">
+      <c r="K553" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03747992706</v>
       </c>
@@ -42758,11 +42763,11 @@
       <c r="I554" s="3">
         <v>3</v>
       </c>
-      <c r="J554" s="3" t="str">
+      <c r="J554" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K554" s="3" t="str">
+      <c r="K554" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03747992706</v>
       </c>
@@ -42827,11 +42832,11 @@
       <c r="I555" s="3">
         <v>3</v>
       </c>
-      <c r="J555" s="3" t="str">
+      <c r="J555" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K555" s="3" t="str">
+      <c r="K555" s="4" t="str">
         <f t="shared" si="34"/>
         <v>75887878720</v>
       </c>
@@ -42896,11 +42901,11 @@
       <c r="I556" s="3">
         <v>3</v>
       </c>
-      <c r="J556" s="3" t="str">
+      <c r="J556" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K556" s="3" t="str">
+      <c r="K556" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00100477780</v>
       </c>
@@ -42965,11 +42970,11 @@
       <c r="I557" s="3">
         <v>3</v>
       </c>
-      <c r="J557" s="3" t="str">
+      <c r="J557" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K557" s="3" t="str">
+      <c r="K557" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00100477780</v>
       </c>
@@ -43034,11 +43039,11 @@
       <c r="I558" s="3">
         <v>3</v>
       </c>
-      <c r="J558" s="3" t="str">
+      <c r="J558" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K558" s="3" t="str">
+      <c r="K558" s="4" t="str">
         <f t="shared" si="34"/>
         <v>84674610710</v>
       </c>
@@ -43103,11 +43108,11 @@
       <c r="I559" s="3">
         <v>3</v>
       </c>
-      <c r="J559" s="3" t="str">
+      <c r="J559" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K559" s="3" t="str">
+      <c r="K559" s="4" t="str">
         <f t="shared" si="34"/>
         <v>84674610710</v>
       </c>
@@ -43172,11 +43177,11 @@
       <c r="I560" s="3">
         <v>3</v>
       </c>
-      <c r="J560" s="3" t="str">
+      <c r="J560" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K560" s="3" t="str">
+      <c r="K560" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08705475775</v>
       </c>
@@ -43241,11 +43246,11 @@
       <c r="I561" s="3">
         <v>3</v>
       </c>
-      <c r="J561" s="3" t="str">
+      <c r="J561" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K561" s="3" t="str">
+      <c r="K561" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08705475775</v>
       </c>
@@ -43310,11 +43315,11 @@
       <c r="I562" s="3">
         <v>3</v>
       </c>
-      <c r="J562" s="3" t="str">
+      <c r="J562" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K562" s="3" t="str">
+      <c r="K562" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07536195710</v>
       </c>
@@ -43379,11 +43384,11 @@
       <c r="I563" s="3">
         <v>3</v>
       </c>
-      <c r="J563" s="3" t="str">
+      <c r="J563" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K563" s="3" t="str">
+      <c r="K563" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07896229714</v>
       </c>
@@ -43448,11 +43453,11 @@
       <c r="I564" s="3">
         <v>3</v>
       </c>
-      <c r="J564" s="3" t="str">
+      <c r="J564" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K564" s="3" t="str">
+      <c r="K564" s="4" t="str">
         <f t="shared" si="34"/>
         <v>07896229714</v>
       </c>
@@ -43517,11 +43522,11 @@
       <c r="I565" s="3">
         <v>3</v>
       </c>
-      <c r="J565" s="3" t="str">
+      <c r="J565" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K565" s="3" t="str">
+      <c r="K565" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08627124752</v>
       </c>
@@ -43586,11 +43591,11 @@
       <c r="I566" s="3">
         <v>3</v>
       </c>
-      <c r="J566" s="3" t="str">
+      <c r="J566" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K566" s="3" t="str">
+      <c r="K566" s="4" t="str">
         <f t="shared" si="34"/>
         <v>08627124752</v>
       </c>
@@ -43655,11 +43660,11 @@
       <c r="I567" s="3">
         <v>3</v>
       </c>
-      <c r="J567" s="3" t="str">
+      <c r="J567" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K567" s="3" t="str">
+      <c r="K567" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04285779706</v>
       </c>
@@ -43724,11 +43729,11 @@
       <c r="I568" s="3">
         <v>3</v>
       </c>
-      <c r="J568" s="3" t="str">
+      <c r="J568" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K568" s="3" t="str">
+      <c r="K568" s="4" t="str">
         <f t="shared" si="34"/>
         <v>22115927168</v>
       </c>
@@ -43793,11 +43798,11 @@
       <c r="I569" s="3">
         <v>3</v>
       </c>
-      <c r="J569" s="3" t="str">
+      <c r="J569" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K569" s="3" t="str">
+      <c r="K569" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03665806712</v>
       </c>
@@ -43862,11 +43867,11 @@
       <c r="I570" s="3">
         <v>3</v>
       </c>
-      <c r="J570" s="3" t="str">
+      <c r="J570" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K570" s="3" t="str">
+      <c r="K570" s="4" t="str">
         <f t="shared" si="34"/>
         <v>03665806712</v>
       </c>
@@ -43931,11 +43936,11 @@
       <c r="I571" s="3">
         <v>3</v>
       </c>
-      <c r="J571" s="3" t="str">
+      <c r="J571" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K571" s="3" t="str">
+      <c r="K571" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -44000,11 +44005,11 @@
       <c r="I572" s="3">
         <v>3</v>
       </c>
-      <c r="J572" s="3" t="str">
+      <c r="J572" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K572" s="3" t="str">
+      <c r="K572" s="4" t="str">
         <f t="shared" si="34"/>
         <v>00389228788</v>
       </c>
@@ -44069,11 +44074,11 @@
       <c r="I573" s="3">
         <v>3</v>
       </c>
-      <c r="J573" s="3" t="str">
+      <c r="J573" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K573" s="3" t="str">
+      <c r="K573" s="4" t="str">
         <f t="shared" si="34"/>
         <v>01641334703</v>
       </c>
@@ -44138,11 +44143,11 @@
       <c r="I574" s="3">
         <v>3</v>
       </c>
-      <c r="J574" s="3" t="str">
+      <c r="J574" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K574" s="3" t="str">
+      <c r="K574" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04303703770</v>
       </c>
@@ -44207,11 +44212,11 @@
       <c r="I575" s="3">
         <v>3</v>
       </c>
-      <c r="J575" s="3" t="str">
+      <c r="J575" s="4" t="str">
         <f t="shared" si="32"/>
         <v>22:00 às 22:40</v>
       </c>
-      <c r="K575" s="3" t="str">
+      <c r="K575" s="4" t="str">
         <f t="shared" si="34"/>
         <v>04303703770</v>
       </c>
@@ -44276,11 +44281,11 @@
       <c r="I576" s="3">
         <v>1</v>
       </c>
-      <c r="J576" s="3" t="str">
+      <c r="J576" s="4" t="str">
         <f t="shared" si="32"/>
         <v>20:00 às 20:40</v>
       </c>
-      <c r="K576" s="3" t="str">
+      <c r="K576" s="4" t="str">
         <f t="shared" si="34"/>
         <v>09374606720</v>
       </c>
@@ -44345,11 +44350,11 @@
       <c r="I577" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J577" s="3" t="str">
+      <c r="J577" s="4" t="str">
         <f t="shared" si="32"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K577" s="3" t="str">
+      <c r="K577" s="4" t="str">
         <f t="shared" si="34"/>
         <v>10583797717</v>
       </c>
@@ -44414,11 +44419,11 @@
       <c r="I578" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J578" s="3" t="str">
-        <f t="shared" ref="J578:J641" si="36">IF(I578=1,"20:00 às 20:40",IF(I578=2,"21:00 às 21:40",IF(I578=3,"22:00 às 22:40",I578)))</f>
+      <c r="J578" s="4" t="str">
+        <f t="shared" ref="J578:J616" si="36">IF(I578=1,"20:00 às 20:40",IF(I578=2,"21:00 às 21:40",IF(I578=3,"22:00 às 22:40",I578)))</f>
         <v>ESTAGIO</v>
       </c>
-      <c r="K578" s="3" t="str">
+      <c r="K578" s="4" t="str">
         <f t="shared" si="34"/>
         <v>10583797717</v>
       </c>
@@ -44483,11 +44488,11 @@
       <c r="I579" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J579" s="3" t="str">
+      <c r="J579" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K579" s="3" t="str">
+      <c r="K579" s="4" t="str">
         <f t="shared" ref="K579:K616" si="38">TEXT(A579,"00000000000")</f>
         <v>10583797717</v>
       </c>
@@ -44552,11 +44557,11 @@
       <c r="I580" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J580" s="3" t="str">
+      <c r="J580" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K580" s="3" t="str">
+      <c r="K580" s="4" t="str">
         <f t="shared" si="38"/>
         <v>10583797717</v>
       </c>
@@ -44625,11 +44630,11 @@
       <c r="I581" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J581" s="3" t="str">
+      <c r="J581" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K581" s="3" t="str">
+      <c r="K581" s="4" t="str">
         <f t="shared" si="38"/>
         <v>10502293713</v>
       </c>
@@ -44694,11 +44699,11 @@
       <c r="I582" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J582" s="3" t="str">
+      <c r="J582" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K582" s="3" t="str">
+      <c r="K582" s="4" t="str">
         <f t="shared" si="38"/>
         <v>10502293713</v>
       </c>
@@ -44763,11 +44768,11 @@
       <c r="I583" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J583" s="3" t="str">
+      <c r="J583" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K583" s="3" t="str">
+      <c r="K583" s="4" t="str">
         <f t="shared" si="38"/>
         <v>12084568730</v>
       </c>
@@ -44832,11 +44837,11 @@
       <c r="I584" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J584" s="3" t="str">
+      <c r="J584" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K584" s="3" t="str">
+      <c r="K584" s="4" t="str">
         <f t="shared" si="38"/>
         <v>12084568730</v>
       </c>
@@ -44901,11 +44906,11 @@
       <c r="I585" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J585" s="3" t="str">
+      <c r="J585" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K585" s="3" t="str">
+      <c r="K585" s="4" t="str">
         <f t="shared" si="38"/>
         <v>84674610710</v>
       </c>
@@ -44970,11 +44975,11 @@
       <c r="I586" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J586" s="3" t="str">
+      <c r="J586" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K586" s="3" t="str">
+      <c r="K586" s="4" t="str">
         <f t="shared" si="38"/>
         <v>10250762730</v>
       </c>
@@ -45039,11 +45044,11 @@
       <c r="I587" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J587" s="3" t="str">
+      <c r="J587" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K587" s="3" t="str">
+      <c r="K587" s="4" t="str">
         <f t="shared" si="38"/>
         <v>11123487782</v>
       </c>
@@ -45108,11 +45113,11 @@
       <c r="I588" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J588" s="3" t="str">
+      <c r="J588" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K588" s="3" t="str">
+      <c r="K588" s="4" t="str">
         <f t="shared" si="38"/>
         <v>07896229714</v>
       </c>
@@ -45177,11 +45182,11 @@
       <c r="I589" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J589" s="3" t="str">
+      <c r="J589" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K589" s="3" t="str">
+      <c r="K589" s="4" t="str">
         <f t="shared" si="38"/>
         <v>07896229714</v>
       </c>
@@ -45246,11 +45251,11 @@
       <c r="I590" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J590" s="3" t="str">
+      <c r="J590" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K590" s="3" t="str">
+      <c r="K590" s="4" t="str">
         <f t="shared" si="38"/>
         <v>01241688761</v>
       </c>
@@ -45315,11 +45320,11 @@
       <c r="I591" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J591" s="3" t="str">
+      <c r="J591" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K591" s="3" t="str">
+      <c r="K591" s="4" t="str">
         <f t="shared" si="38"/>
         <v>01241688761</v>
       </c>
@@ -45384,11 +45389,11 @@
       <c r="I592" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J592" s="3" t="str">
+      <c r="J592" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K592" s="3" t="str">
+      <c r="K592" s="4" t="str">
         <f t="shared" si="38"/>
         <v>01241688761</v>
       </c>
@@ -45453,11 +45458,11 @@
       <c r="I593" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J593" s="3" t="str">
+      <c r="J593" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K593" s="3" t="str">
+      <c r="K593" s="4" t="str">
         <f t="shared" si="38"/>
         <v>01241688761</v>
       </c>
@@ -45522,11 +45527,11 @@
       <c r="I594" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J594" s="3" t="str">
+      <c r="J594" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K594" s="3" t="str">
+      <c r="K594" s="4" t="str">
         <f t="shared" si="38"/>
         <v>04285779706</v>
       </c>
@@ -45591,11 +45596,11 @@
       <c r="I595" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J595" s="3" t="str">
+      <c r="J595" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K595" s="3" t="str">
+      <c r="K595" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -45660,11 +45665,11 @@
       <c r="I596" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J596" s="3" t="str">
+      <c r="J596" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K596" s="3" t="str">
+      <c r="K596" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -45729,11 +45734,11 @@
       <c r="I597" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J597" s="3" t="str">
+      <c r="J597" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K597" s="3" t="str">
+      <c r="K597" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -45798,11 +45803,11 @@
       <c r="I598" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J598" s="3" t="str">
+      <c r="J598" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K598" s="3" t="str">
+      <c r="K598" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -45867,11 +45872,11 @@
       <c r="I599" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J599" s="3" t="str">
+      <c r="J599" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTAGIO</v>
       </c>
-      <c r="K599" s="3" t="str">
+      <c r="K599" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -45936,11 +45941,11 @@
       <c r="I600" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J600" s="3" t="str">
+      <c r="J600" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K600" s="3" t="str">
+      <c r="K600" s="4" t="str">
         <f t="shared" si="38"/>
         <v>04274535770</v>
       </c>
@@ -46005,11 +46010,11 @@
       <c r="I601" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J601" s="3" t="str">
+      <c r="J601" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K601" s="3" t="str">
+      <c r="K601" s="4" t="str">
         <f t="shared" si="38"/>
         <v>04274535770</v>
       </c>
@@ -46074,11 +46079,11 @@
       <c r="I602" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J602" s="3" t="str">
+      <c r="J602" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K602" s="3" t="str">
+      <c r="K602" s="4" t="str">
         <f t="shared" si="38"/>
         <v>07769495784</v>
       </c>
@@ -46143,11 +46148,11 @@
       <c r="I603" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J603" s="3" t="str">
+      <c r="J603" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K603" s="3" t="str">
+      <c r="K603" s="4" t="str">
         <f t="shared" si="38"/>
         <v>07769495784</v>
       </c>
@@ -46212,11 +46217,11 @@
       <c r="I604" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J604" s="3" t="str">
+      <c r="J604" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K604" s="3" t="str">
+      <c r="K604" s="4" t="str">
         <f t="shared" si="38"/>
         <v>08705475775</v>
       </c>
@@ -46281,11 +46286,11 @@
       <c r="I605" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J605" s="3" t="str">
+      <c r="J605" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K605" s="3" t="str">
+      <c r="K605" s="4" t="str">
         <f t="shared" si="38"/>
         <v>78776325768</v>
       </c>
@@ -46350,11 +46355,11 @@
       <c r="I606" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J606" s="3" t="str">
+      <c r="J606" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K606" s="3" t="str">
+      <c r="K606" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -46419,11 +46424,11 @@
       <c r="I607" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J607" s="3" t="str">
+      <c r="J607" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K607" s="3" t="str">
+      <c r="K607" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -46488,11 +46493,11 @@
       <c r="I608" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J608" s="3" t="str">
+      <c r="J608" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K608" s="3" t="str">
+      <c r="K608" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -46557,11 +46562,11 @@
       <c r="I609" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J609" s="3" t="str">
+      <c r="J609" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K609" s="3" t="str">
+      <c r="K609" s="4" t="str">
         <f t="shared" si="38"/>
         <v>05682394747</v>
       </c>
@@ -46626,11 +46631,11 @@
       <c r="I610" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J610" s="3" t="str">
+      <c r="J610" s="4" t="str">
         <f t="shared" si="36"/>
         <v>ESTUDO DIRIGIDO</v>
       </c>
-      <c r="K610" s="3" t="str">
+      <c r="K610" s="4" t="str">
         <f t="shared" si="38"/>
         <v>16030802798</v>
       </c>
@@ -46695,11 +46700,11 @@
       <c r="I611" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J611" s="3" t="str">
+      <c r="J611" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K611" s="3" t="str">
+      <c r="K611" s="4" t="str">
         <f t="shared" si="38"/>
         <v>14820606719</v>
       </c>
@@ -46764,11 +46769,11 @@
       <c r="I612" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J612" s="3" t="str">
+      <c r="J612" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K612" s="3" t="str">
+      <c r="K612" s="4" t="str">
         <f t="shared" si="38"/>
         <v>14820606719</v>
       </c>
@@ -46833,11 +46838,11 @@
       <c r="I613" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J613" s="3" t="str">
+      <c r="J613" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K613" s="3" t="str">
+      <c r="K613" s="4" t="str">
         <f t="shared" si="38"/>
         <v>14820606719</v>
       </c>
@@ -46902,11 +46907,11 @@
       <c r="I614" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J614" s="3" t="str">
+      <c r="J614" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K614" s="3" t="str">
+      <c r="K614" s="4" t="str">
         <f t="shared" si="38"/>
         <v>26677778835</v>
       </c>
@@ -46971,11 +46976,11 @@
       <c r="I615" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J615" s="3" t="str">
+      <c r="J615" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K615" s="3" t="str">
+      <c r="K615" s="4" t="str">
         <f t="shared" si="38"/>
         <v>93987188715</v>
       </c>
@@ -47040,11 +47045,11 @@
       <c r="I616" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J616" s="3" t="str">
+      <c r="J616" s="4" t="str">
         <f t="shared" si="36"/>
         <v>PRESENCIAL</v>
       </c>
-      <c r="K616" s="3" t="str">
+      <c r="K616" s="4" t="str">
         <f t="shared" si="38"/>
         <v>93987188715</v>
       </c>
